--- a/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>YZCAY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9677300</v>
+        <v>9439900</v>
       </c>
       <c r="E8" s="3">
-        <v>7557400</v>
+        <v>7372000</v>
       </c>
       <c r="F8" s="3">
-        <v>4773900</v>
+        <v>4656800</v>
       </c>
       <c r="G8" s="3">
-        <v>5223300</v>
+        <v>5095100</v>
       </c>
       <c r="H8" s="3">
-        <v>8662000</v>
+        <v>8449500</v>
       </c>
       <c r="I8" s="3">
-        <v>8092500</v>
+        <v>7894000</v>
       </c>
       <c r="J8" s="3">
-        <v>8342800</v>
+        <v>8138100</v>
       </c>
       <c r="K8" s="3">
         <v>6985000</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6189800</v>
+        <v>6038000</v>
       </c>
       <c r="E9" s="3">
-        <v>4843400</v>
+        <v>4724600</v>
       </c>
       <c r="F9" s="3">
-        <v>3416000</v>
+        <v>3332200</v>
       </c>
       <c r="G9" s="3">
-        <v>4340300</v>
+        <v>4233900</v>
       </c>
       <c r="H9" s="3">
-        <v>7588600</v>
+        <v>7402400</v>
       </c>
       <c r="I9" s="3">
-        <v>6559100</v>
+        <v>6398100</v>
       </c>
       <c r="J9" s="3">
-        <v>12256700</v>
+        <v>11956100</v>
       </c>
       <c r="K9" s="3">
         <v>7846200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3487500</v>
+        <v>3401900</v>
       </c>
       <c r="E10" s="3">
-        <v>2714000</v>
+        <v>2647400</v>
       </c>
       <c r="F10" s="3">
-        <v>1357900</v>
+        <v>1324600</v>
       </c>
       <c r="G10" s="3">
-        <v>882900</v>
+        <v>861300</v>
       </c>
       <c r="H10" s="3">
-        <v>1073400</v>
+        <v>1047100</v>
       </c>
       <c r="I10" s="3">
-        <v>1533500</v>
+        <v>1495900</v>
       </c>
       <c r="J10" s="3">
-        <v>-3913900</v>
+        <v>-3817900</v>
       </c>
       <c r="K10" s="3">
         <v>-861100</v>
@@ -824,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="G12" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H12" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I12" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="J12" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="K12" s="3">
         <v>17700</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-14200</v>
+        <v>-13800</v>
       </c>
       <c r="E14" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F14" s="3">
-        <v>95900</v>
+        <v>93500</v>
       </c>
       <c r="G14" s="3">
-        <v>46900</v>
+        <v>45800</v>
       </c>
       <c r="H14" s="3">
-        <v>-104900</v>
+        <v>-102400</v>
       </c>
       <c r="I14" s="3">
-        <v>294500</v>
+        <v>287200</v>
       </c>
       <c r="J14" s="3">
-        <v>92400</v>
+        <v>90200</v>
       </c>
       <c r="K14" s="3">
         <v>41900</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>104300</v>
+        <v>101700</v>
       </c>
       <c r="E15" s="3">
-        <v>72300</v>
+        <v>70500</v>
       </c>
       <c r="F15" s="3">
-        <v>55700</v>
+        <v>54400</v>
       </c>
       <c r="G15" s="3">
-        <v>47300</v>
+        <v>46100</v>
       </c>
       <c r="H15" s="3">
-        <v>56800</v>
+        <v>55400</v>
       </c>
       <c r="I15" s="3">
-        <v>59900</v>
+        <v>58400</v>
       </c>
       <c r="J15" s="3">
-        <v>49200</v>
+        <v>48000</v>
       </c>
       <c r="K15" s="3">
         <v>34200</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7663500</v>
+        <v>7475500</v>
       </c>
       <c r="E17" s="3">
-        <v>5970700</v>
+        <v>5824200</v>
       </c>
       <c r="F17" s="3">
-        <v>4533600</v>
+        <v>4422300</v>
       </c>
       <c r="G17" s="3">
-        <v>5157700</v>
+        <v>5031200</v>
       </c>
       <c r="H17" s="3">
-        <v>8354500</v>
+        <v>8149600</v>
       </c>
       <c r="I17" s="3">
-        <v>8048500</v>
+        <v>7851000</v>
       </c>
       <c r="J17" s="3">
-        <v>7677300</v>
+        <v>7489000</v>
       </c>
       <c r="K17" s="3">
         <v>5210900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2013800</v>
+        <v>1964400</v>
       </c>
       <c r="E18" s="3">
-        <v>1586700</v>
+        <v>1547800</v>
       </c>
       <c r="F18" s="3">
-        <v>240400</v>
+        <v>234500</v>
       </c>
       <c r="G18" s="3">
-        <v>65600</v>
+        <v>63900</v>
       </c>
       <c r="H18" s="3">
-        <v>307500</v>
+        <v>299900</v>
       </c>
       <c r="I18" s="3">
-        <v>44100</v>
+        <v>43000</v>
       </c>
       <c r="J18" s="3">
-        <v>665500</v>
+        <v>649200</v>
       </c>
       <c r="K18" s="3">
         <v>1774100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>790300</v>
+        <v>770900</v>
       </c>
       <c r="E20" s="3">
-        <v>498600</v>
+        <v>486400</v>
       </c>
       <c r="F20" s="3">
-        <v>505200</v>
+        <v>492800</v>
       </c>
       <c r="G20" s="3">
-        <v>380200</v>
+        <v>370900</v>
       </c>
       <c r="H20" s="3">
-        <v>235400</v>
+        <v>229600</v>
       </c>
       <c r="I20" s="3">
-        <v>126000</v>
+        <v>122900</v>
       </c>
       <c r="J20" s="3">
-        <v>621200</v>
+        <v>606000</v>
       </c>
       <c r="K20" s="3">
         <v>169900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3711000</v>
+        <v>3617400</v>
       </c>
       <c r="E21" s="3">
-        <v>2752600</v>
+        <v>2683200</v>
       </c>
       <c r="F21" s="3">
-        <v>1343200</v>
+        <v>1308600</v>
       </c>
       <c r="G21" s="3">
-        <v>1085700</v>
+        <v>1057300</v>
       </c>
       <c r="H21" s="3">
-        <v>1144600</v>
+        <v>1114800</v>
       </c>
       <c r="I21" s="3">
-        <v>808400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1860000</v>
+        <v>786700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>2387900</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>518300</v>
+        <v>505600</v>
       </c>
       <c r="E22" s="3">
-        <v>467100</v>
+        <v>455600</v>
       </c>
       <c r="F22" s="3">
-        <v>358800</v>
+        <v>350000</v>
       </c>
       <c r="G22" s="3">
-        <v>356500</v>
+        <v>347700</v>
       </c>
       <c r="H22" s="3">
-        <v>313300</v>
+        <v>305600</v>
       </c>
       <c r="I22" s="3">
-        <v>253400</v>
+        <v>247100</v>
       </c>
       <c r="J22" s="3">
-        <v>415700</v>
+        <v>405500</v>
       </c>
       <c r="K22" s="3">
         <v>124600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2285800</v>
+        <v>2229700</v>
       </c>
       <c r="E23" s="3">
-        <v>1618200</v>
+        <v>1578500</v>
       </c>
       <c r="F23" s="3">
-        <v>386700</v>
+        <v>377200</v>
       </c>
       <c r="G23" s="3">
-        <v>89300</v>
+        <v>87100</v>
       </c>
       <c r="H23" s="3">
-        <v>229600</v>
+        <v>223900</v>
       </c>
       <c r="I23" s="3">
-        <v>-83300</v>
+        <v>-81200</v>
       </c>
       <c r="J23" s="3">
-        <v>871000</v>
+        <v>849600</v>
       </c>
       <c r="K23" s="3">
         <v>1819400</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>661200</v>
+        <v>645000</v>
       </c>
       <c r="E24" s="3">
-        <v>389500</v>
+        <v>379900</v>
       </c>
       <c r="F24" s="3">
-        <v>117200</v>
+        <v>114300</v>
       </c>
       <c r="G24" s="3">
-        <v>70300</v>
+        <v>68500</v>
       </c>
       <c r="H24" s="3">
-        <v>159700</v>
+        <v>155700</v>
       </c>
       <c r="I24" s="3">
-        <v>-56600</v>
+        <v>-55300</v>
       </c>
       <c r="J24" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="K24" s="3">
         <v>514500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1624600</v>
+        <v>1584700</v>
       </c>
       <c r="E26" s="3">
-        <v>1228700</v>
+        <v>1198600</v>
       </c>
       <c r="F26" s="3">
-        <v>269500</v>
+        <v>262900</v>
       </c>
       <c r="G26" s="3">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="H26" s="3">
-        <v>69900</v>
+        <v>68200</v>
       </c>
       <c r="I26" s="3">
-        <v>-26600</v>
+        <v>-26000</v>
       </c>
       <c r="J26" s="3">
-        <v>865800</v>
+        <v>844500</v>
       </c>
       <c r="K26" s="3">
         <v>1304900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1231400</v>
+        <v>1201200</v>
       </c>
       <c r="E27" s="3">
-        <v>1056400</v>
+        <v>1030500</v>
       </c>
       <c r="F27" s="3">
-        <v>236700</v>
+        <v>230800</v>
       </c>
       <c r="G27" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="H27" s="3">
-        <v>109900</v>
+        <v>107200</v>
       </c>
       <c r="I27" s="3">
-        <v>111500</v>
+        <v>108800</v>
       </c>
       <c r="J27" s="3">
-        <v>870300</v>
+        <v>848900</v>
       </c>
       <c r="K27" s="3">
         <v>1297900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-790300</v>
+        <v>-770900</v>
       </c>
       <c r="E32" s="3">
-        <v>-498600</v>
+        <v>-486400</v>
       </c>
       <c r="F32" s="3">
-        <v>-505200</v>
+        <v>-492800</v>
       </c>
       <c r="G32" s="3">
-        <v>-380200</v>
+        <v>-370900</v>
       </c>
       <c r="H32" s="3">
-        <v>-235400</v>
+        <v>-229600</v>
       </c>
       <c r="I32" s="3">
-        <v>-126000</v>
+        <v>-122900</v>
       </c>
       <c r="J32" s="3">
-        <v>-621200</v>
+        <v>-606000</v>
       </c>
       <c r="K32" s="3">
         <v>-169900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1231400</v>
+        <v>1201200</v>
       </c>
       <c r="E33" s="3">
-        <v>1056400</v>
+        <v>1030500</v>
       </c>
       <c r="F33" s="3">
-        <v>236700</v>
+        <v>230800</v>
       </c>
       <c r="G33" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="H33" s="3">
-        <v>109900</v>
+        <v>107200</v>
       </c>
       <c r="I33" s="3">
-        <v>111500</v>
+        <v>108800</v>
       </c>
       <c r="J33" s="3">
-        <v>870300</v>
+        <v>848900</v>
       </c>
       <c r="K33" s="3">
         <v>1297900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1231400</v>
+        <v>1201200</v>
       </c>
       <c r="E35" s="3">
-        <v>1056400</v>
+        <v>1030500</v>
       </c>
       <c r="F35" s="3">
-        <v>236700</v>
+        <v>230800</v>
       </c>
       <c r="G35" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="H35" s="3">
-        <v>109900</v>
+        <v>107200</v>
       </c>
       <c r="I35" s="3">
-        <v>111500</v>
+        <v>108800</v>
       </c>
       <c r="J35" s="3">
-        <v>870300</v>
+        <v>848900</v>
       </c>
       <c r="K35" s="3">
         <v>1297900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3927500</v>
+        <v>3836600</v>
       </c>
       <c r="E41" s="3">
-        <v>3023600</v>
+        <v>2953600</v>
       </c>
       <c r="F41" s="3">
-        <v>2356300</v>
+        <v>2301800</v>
       </c>
       <c r="G41" s="3">
-        <v>2894700</v>
+        <v>2827700</v>
       </c>
       <c r="H41" s="3">
-        <v>2158200</v>
+        <v>2108300</v>
       </c>
       <c r="I41" s="3">
-        <v>1567200</v>
+        <v>1530900</v>
       </c>
       <c r="J41" s="3">
-        <v>1824700</v>
+        <v>1782500</v>
       </c>
       <c r="K41" s="3">
         <v>1208800</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="F42" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>457300</v>
+        <v>446700</v>
       </c>
       <c r="K42" s="3">
         <v>1416300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2485100</v>
+        <v>2427600</v>
       </c>
       <c r="E43" s="3">
-        <v>3019000</v>
+        <v>2949200</v>
       </c>
       <c r="F43" s="3">
-        <v>1703000</v>
+        <v>1663500</v>
       </c>
       <c r="G43" s="3">
-        <v>1140400</v>
+        <v>1114000</v>
       </c>
       <c r="H43" s="3">
-        <v>1277200</v>
+        <v>1247700</v>
       </c>
       <c r="I43" s="3">
-        <v>1315000</v>
+        <v>1284600</v>
       </c>
       <c r="J43" s="3">
-        <v>2327000</v>
+        <v>2273200</v>
       </c>
       <c r="K43" s="3">
         <v>1163100</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1045400</v>
+        <v>1021200</v>
       </c>
       <c r="E44" s="3">
-        <v>862000</v>
+        <v>842000</v>
       </c>
       <c r="F44" s="3">
-        <v>725800</v>
+        <v>709100</v>
       </c>
       <c r="G44" s="3">
-        <v>654200</v>
+        <v>639100</v>
       </c>
       <c r="H44" s="3">
-        <v>499200</v>
+        <v>487700</v>
       </c>
       <c r="I44" s="3">
-        <v>228000</v>
+        <v>222700</v>
       </c>
       <c r="J44" s="3">
-        <v>449200</v>
+        <v>438800</v>
       </c>
       <c r="K44" s="3">
         <v>206500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1843900</v>
+        <v>1801200</v>
       </c>
       <c r="E45" s="3">
-        <v>2447300</v>
+        <v>2390700</v>
       </c>
       <c r="F45" s="3">
-        <v>1152200</v>
+        <v>1125500</v>
       </c>
       <c r="G45" s="3">
-        <v>2314100</v>
+        <v>2260500</v>
       </c>
       <c r="H45" s="3">
-        <v>1530000</v>
+        <v>1494600</v>
       </c>
       <c r="I45" s="3">
-        <v>1412900</v>
+        <v>1380200</v>
       </c>
       <c r="J45" s="3">
-        <v>1660200</v>
+        <v>1621800</v>
       </c>
       <c r="K45" s="3">
         <v>521600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9301900</v>
+        <v>9086700</v>
       </c>
       <c r="E46" s="3">
-        <v>9361900</v>
+        <v>9145200</v>
       </c>
       <c r="F46" s="3">
-        <v>5956100</v>
+        <v>5818200</v>
       </c>
       <c r="G46" s="3">
-        <v>7003400</v>
+        <v>6841400</v>
       </c>
       <c r="H46" s="3">
-        <v>5464600</v>
+        <v>5338200</v>
       </c>
       <c r="I46" s="3">
-        <v>4523100</v>
+        <v>4418500</v>
       </c>
       <c r="J46" s="3">
-        <v>4280500</v>
+        <v>4181500</v>
       </c>
       <c r="K46" s="3">
         <v>4516300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3790100</v>
+        <v>3702400</v>
       </c>
       <c r="E47" s="3">
-        <v>2732100</v>
+        <v>2668900</v>
       </c>
       <c r="F47" s="3">
-        <v>1939900</v>
+        <v>1895000</v>
       </c>
       <c r="G47" s="3">
-        <v>790200</v>
+        <v>771900</v>
       </c>
       <c r="H47" s="3">
-        <v>689700</v>
+        <v>673700</v>
       </c>
       <c r="I47" s="3">
-        <v>932900</v>
+        <v>911300</v>
       </c>
       <c r="J47" s="3">
-        <v>1636600</v>
+        <v>1598700</v>
       </c>
       <c r="K47" s="3">
         <v>732300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8238200</v>
+        <v>8047600</v>
       </c>
       <c r="E48" s="3">
-        <v>7416400</v>
+        <v>7244800</v>
       </c>
       <c r="F48" s="3">
-        <v>6019400</v>
+        <v>5880100</v>
       </c>
       <c r="G48" s="3">
-        <v>6545000</v>
+        <v>6393500</v>
       </c>
       <c r="H48" s="3">
-        <v>6338200</v>
+        <v>6191500</v>
       </c>
       <c r="I48" s="3">
-        <v>6011300</v>
+        <v>5872200</v>
       </c>
       <c r="J48" s="3">
-        <v>5352400</v>
+        <v>5228500</v>
       </c>
       <c r="K48" s="3">
         <v>4641300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7105200</v>
+        <v>6940800</v>
       </c>
       <c r="E49" s="3">
-        <v>7444600</v>
+        <v>7272400</v>
       </c>
       <c r="F49" s="3">
-        <v>6062500</v>
+        <v>5922300</v>
       </c>
       <c r="G49" s="3">
-        <v>4955700</v>
+        <v>4841000</v>
       </c>
       <c r="H49" s="3">
-        <v>5670400</v>
+        <v>5539200</v>
       </c>
       <c r="I49" s="3">
-        <v>5842100</v>
+        <v>5706900</v>
       </c>
       <c r="J49" s="3">
-        <v>10021000</v>
+        <v>9789100</v>
       </c>
       <c r="K49" s="3">
         <v>4166100</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1122000</v>
+        <v>1096100</v>
       </c>
       <c r="E52" s="3">
-        <v>1355400</v>
+        <v>1324000</v>
       </c>
       <c r="F52" s="3">
-        <v>1179000</v>
+        <v>1151800</v>
       </c>
       <c r="G52" s="3">
-        <v>1147600</v>
+        <v>1121000</v>
       </c>
       <c r="H52" s="3">
-        <v>934100</v>
+        <v>912500</v>
       </c>
       <c r="I52" s="3">
-        <v>978300</v>
+        <v>955700</v>
       </c>
       <c r="J52" s="3">
-        <v>1081200</v>
+        <v>1056200</v>
       </c>
       <c r="K52" s="3">
         <v>362300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29557400</v>
+        <v>28873500</v>
       </c>
       <c r="E54" s="3">
-        <v>28310400</v>
+        <v>27655300</v>
       </c>
       <c r="F54" s="3">
-        <v>21156900</v>
+        <v>20667400</v>
       </c>
       <c r="G54" s="3">
-        <v>20441900</v>
+        <v>19968900</v>
       </c>
       <c r="H54" s="3">
-        <v>19096900</v>
+        <v>18655000</v>
       </c>
       <c r="I54" s="3">
-        <v>18287700</v>
+        <v>17864500</v>
       </c>
       <c r="J54" s="3">
-        <v>17528200</v>
+        <v>17122700</v>
       </c>
       <c r="K54" s="3">
         <v>14418300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1928900</v>
+        <v>1884300</v>
       </c>
       <c r="E57" s="3">
-        <v>1386900</v>
+        <v>1354800</v>
       </c>
       <c r="F57" s="3">
-        <v>884600</v>
+        <v>864100</v>
       </c>
       <c r="G57" s="3">
-        <v>631000</v>
+        <v>616400</v>
       </c>
       <c r="H57" s="3">
-        <v>606600</v>
+        <v>592500</v>
       </c>
       <c r="I57" s="3">
-        <v>396200</v>
+        <v>387000</v>
       </c>
       <c r="J57" s="3">
-        <v>1551100</v>
+        <v>1515200</v>
       </c>
       <c r="K57" s="3">
         <v>384900</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2879600</v>
+        <v>2813000</v>
       </c>
       <c r="E58" s="3">
-        <v>3981800</v>
+        <v>3889600</v>
       </c>
       <c r="F58" s="3">
-        <v>4410900</v>
+        <v>4308800</v>
       </c>
       <c r="G58" s="3">
-        <v>3429600</v>
+        <v>3350300</v>
       </c>
       <c r="H58" s="3">
-        <v>1559900</v>
+        <v>1523800</v>
       </c>
       <c r="I58" s="3">
-        <v>1617700</v>
+        <v>1580300</v>
       </c>
       <c r="J58" s="3">
-        <v>2270500</v>
+        <v>2218000</v>
       </c>
       <c r="K58" s="3">
         <v>2907600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3742900</v>
+        <v>3656300</v>
       </c>
       <c r="E59" s="3">
-        <v>3774600</v>
+        <v>3687300</v>
       </c>
       <c r="F59" s="3">
-        <v>2077100</v>
+        <v>2029100</v>
       </c>
       <c r="G59" s="3">
-        <v>1973600</v>
+        <v>1928000</v>
       </c>
       <c r="H59" s="3">
-        <v>1754800</v>
+        <v>1714200</v>
       </c>
       <c r="I59" s="3">
-        <v>2120600</v>
+        <v>2071500</v>
       </c>
       <c r="J59" s="3">
-        <v>3106300</v>
+        <v>3034400</v>
       </c>
       <c r="K59" s="3">
         <v>1860500</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8551500</v>
+        <v>8353600</v>
       </c>
       <c r="E60" s="3">
-        <v>9143300</v>
+        <v>8931700</v>
       </c>
       <c r="F60" s="3">
-        <v>7372600</v>
+        <v>7202000</v>
       </c>
       <c r="G60" s="3">
-        <v>6034200</v>
+        <v>5894600</v>
       </c>
       <c r="H60" s="3">
-        <v>3921300</v>
+        <v>3830600</v>
       </c>
       <c r="I60" s="3">
-        <v>4134500</v>
+        <v>4038800</v>
       </c>
       <c r="J60" s="3">
-        <v>4106800</v>
+        <v>4011800</v>
       </c>
       <c r="K60" s="3">
         <v>5153000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6974300</v>
+        <v>6812900</v>
       </c>
       <c r="E61" s="3">
-        <v>6113600</v>
+        <v>5972100</v>
       </c>
       <c r="F61" s="3">
-        <v>4998200</v>
+        <v>4882600</v>
       </c>
       <c r="G61" s="3">
-        <v>6629900</v>
+        <v>6476500</v>
       </c>
       <c r="H61" s="3">
-        <v>7255300</v>
+        <v>7087400</v>
       </c>
       <c r="I61" s="3">
-        <v>6327500</v>
+        <v>6181000</v>
       </c>
       <c r="J61" s="3">
-        <v>4775600</v>
+        <v>4665100</v>
       </c>
       <c r="K61" s="3">
         <v>2206800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1542400</v>
+        <v>1506700</v>
       </c>
       <c r="E62" s="3">
-        <v>1618800</v>
+        <v>1581300</v>
       </c>
       <c r="F62" s="3">
-        <v>1123800</v>
+        <v>1097800</v>
       </c>
       <c r="G62" s="3">
-        <v>1206100</v>
+        <v>1178200</v>
       </c>
       <c r="H62" s="3">
-        <v>1320500</v>
+        <v>1289900</v>
       </c>
       <c r="I62" s="3">
-        <v>1514600</v>
+        <v>1479600</v>
       </c>
       <c r="J62" s="3">
-        <v>1929700</v>
+        <v>1885000</v>
       </c>
       <c r="K62" s="3">
         <v>628600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20114800</v>
+        <v>19649400</v>
       </c>
       <c r="E66" s="3">
-        <v>19690000</v>
+        <v>19234400</v>
       </c>
       <c r="F66" s="3">
-        <v>14871900</v>
+        <v>14527800</v>
       </c>
       <c r="G66" s="3">
-        <v>14144600</v>
+        <v>13817300</v>
       </c>
       <c r="H66" s="3">
-        <v>12912600</v>
+        <v>12613800</v>
       </c>
       <c r="I66" s="3">
-        <v>12494200</v>
+        <v>12205100</v>
       </c>
       <c r="J66" s="3">
-        <v>10995600</v>
+        <v>10741200</v>
       </c>
       <c r="K66" s="3">
         <v>8090900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7500400</v>
+        <v>7326800</v>
       </c>
       <c r="E72" s="3">
-        <v>6600600</v>
+        <v>6447800</v>
       </c>
       <c r="F72" s="3">
-        <v>5556200</v>
+        <v>5427700</v>
       </c>
       <c r="G72" s="3">
-        <v>5323900</v>
+        <v>5200700</v>
       </c>
       <c r="H72" s="3">
-        <v>5317200</v>
+        <v>5194100</v>
       </c>
       <c r="I72" s="3">
-        <v>5221400</v>
+        <v>5100500</v>
       </c>
       <c r="J72" s="3">
-        <v>6810500</v>
+        <v>6652900</v>
       </c>
       <c r="K72" s="3">
         <v>5216400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9442600</v>
+        <v>9224100</v>
       </c>
       <c r="E76" s="3">
-        <v>8620400</v>
+        <v>8420900</v>
       </c>
       <c r="F76" s="3">
-        <v>6285000</v>
+        <v>6139600</v>
       </c>
       <c r="G76" s="3">
-        <v>6297300</v>
+        <v>6151600</v>
       </c>
       <c r="H76" s="3">
-        <v>6184300</v>
+        <v>6041200</v>
       </c>
       <c r="I76" s="3">
-        <v>5793500</v>
+        <v>5659500</v>
       </c>
       <c r="J76" s="3">
-        <v>6532600</v>
+        <v>6381500</v>
       </c>
       <c r="K76" s="3">
         <v>6327400</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1231400</v>
+        <v>1201200</v>
       </c>
       <c r="E81" s="3">
-        <v>1056400</v>
+        <v>1030500</v>
       </c>
       <c r="F81" s="3">
-        <v>236700</v>
+        <v>230800</v>
       </c>
       <c r="G81" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="H81" s="3">
-        <v>109900</v>
+        <v>107200</v>
       </c>
       <c r="I81" s="3">
-        <v>111500</v>
+        <v>108800</v>
       </c>
       <c r="J81" s="3">
-        <v>870300</v>
+        <v>848900</v>
       </c>
       <c r="K81" s="3">
         <v>1297900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>907200</v>
+        <v>885000</v>
       </c>
       <c r="E83" s="3">
-        <v>667500</v>
+        <v>651200</v>
       </c>
       <c r="F83" s="3">
-        <v>597900</v>
+        <v>583200</v>
       </c>
       <c r="G83" s="3">
-        <v>640200</v>
+        <v>624500</v>
       </c>
       <c r="H83" s="3">
-        <v>601900</v>
+        <v>587200</v>
       </c>
       <c r="I83" s="3">
-        <v>638500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>573500</v>
+        <v>622800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>443200</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2617600</v>
+        <v>2553300</v>
       </c>
       <c r="E89" s="3">
-        <v>1744800</v>
+        <v>1702000</v>
       </c>
       <c r="F89" s="3">
-        <v>1609900</v>
+        <v>1570400</v>
       </c>
       <c r="G89" s="3">
-        <v>291200</v>
+        <v>284000</v>
       </c>
       <c r="H89" s="3">
-        <v>598600</v>
+        <v>583900</v>
       </c>
       <c r="I89" s="3">
-        <v>-315800</v>
+        <v>-308100</v>
       </c>
       <c r="J89" s="3">
-        <v>933100</v>
+        <v>910200</v>
       </c>
       <c r="K89" s="3">
         <v>2668000</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1445900</v>
+        <v>-1410400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1109400</v>
+        <v>-1082200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1116900</v>
+        <v>-1089500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1766200</v>
+        <v>-1722900</v>
       </c>
       <c r="H91" s="3">
-        <v>-832200</v>
+        <v>-811800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1466600</v>
+        <v>-1430600</v>
       </c>
       <c r="J91" s="3">
-        <v>-893900</v>
+        <v>-872000</v>
       </c>
       <c r="K91" s="3">
         <v>-1279200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1459500</v>
+        <v>-1423700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4425100</v>
+        <v>-4316600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2145800</v>
+        <v>-2093100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1177000</v>
+        <v>-1148100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1224600</v>
+        <v>-1194500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1937600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-457300</v>
+        <v>-1890100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-3800900</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-338000</v>
+        <v>-329700</v>
       </c>
       <c r="E96" s="3">
-        <v>-79000</v>
+        <v>-77100</v>
       </c>
       <c r="F96" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="G96" s="3">
-        <v>-14100</v>
+        <v>-13800</v>
       </c>
       <c r="H96" s="3">
-        <v>-14100</v>
+        <v>-13800</v>
       </c>
       <c r="I96" s="3">
-        <v>-254000</v>
+        <v>-247800</v>
       </c>
       <c r="J96" s="3">
-        <v>-402200</v>
+        <v>-392400</v>
       </c>
       <c r="K96" s="3">
         <v>-430700</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-271400</v>
+        <v>-264700</v>
       </c>
       <c r="E100" s="3">
-        <v>3383200</v>
+        <v>3300200</v>
       </c>
       <c r="F100" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G100" s="3">
-        <v>1588900</v>
+        <v>1549900</v>
       </c>
       <c r="H100" s="3">
-        <v>1247200</v>
+        <v>1216600</v>
       </c>
       <c r="I100" s="3">
-        <v>1906400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>164300</v>
+        <v>1859600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>1401100</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="E101" s="3">
-        <v>-35700</v>
+        <v>-34800</v>
       </c>
       <c r="F101" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="G101" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="H101" s="3">
-        <v>-30100</v>
+        <v>-29400</v>
       </c>
       <c r="I101" s="3">
-        <v>89500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>15900</v>
+        <v>87300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-64300</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>903900</v>
+        <v>881700</v>
       </c>
       <c r="E102" s="3">
-        <v>667300</v>
+        <v>650900</v>
       </c>
       <c r="F102" s="3">
-        <v>-538400</v>
+        <v>-525200</v>
       </c>
       <c r="G102" s="3">
-        <v>736500</v>
+        <v>718400</v>
       </c>
       <c r="H102" s="3">
-        <v>591000</v>
+        <v>576500</v>
       </c>
       <c r="I102" s="3">
-        <v>-257500</v>
+        <v>-251200</v>
       </c>
       <c r="J102" s="3">
-        <v>656000</v>
+        <v>639900</v>
       </c>
       <c r="K102" s="3">
         <v>203900</v>

--- a/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9439900</v>
+        <v>9795300</v>
       </c>
       <c r="E8" s="3">
-        <v>7372000</v>
+        <v>7649600</v>
       </c>
       <c r="F8" s="3">
-        <v>4656800</v>
+        <v>4832200</v>
       </c>
       <c r="G8" s="3">
-        <v>5095100</v>
+        <v>5287000</v>
       </c>
       <c r="H8" s="3">
-        <v>8449500</v>
+        <v>8767600</v>
       </c>
       <c r="I8" s="3">
-        <v>7894000</v>
+        <v>8191200</v>
       </c>
       <c r="J8" s="3">
-        <v>8138100</v>
+        <v>8444600</v>
       </c>
       <c r="K8" s="3">
         <v>6985000</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6038000</v>
+        <v>6265300</v>
       </c>
       <c r="E9" s="3">
-        <v>4724600</v>
+        <v>4902500</v>
       </c>
       <c r="F9" s="3">
-        <v>3332200</v>
+        <v>3457700</v>
       </c>
       <c r="G9" s="3">
-        <v>4233900</v>
+        <v>4393300</v>
       </c>
       <c r="H9" s="3">
-        <v>7402400</v>
+        <v>7681100</v>
       </c>
       <c r="I9" s="3">
-        <v>6398100</v>
+        <v>6639100</v>
       </c>
       <c r="J9" s="3">
-        <v>11956100</v>
+        <v>12406200</v>
       </c>
       <c r="K9" s="3">
         <v>7846200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3401900</v>
+        <v>3530000</v>
       </c>
       <c r="E10" s="3">
-        <v>2647400</v>
+        <v>2747100</v>
       </c>
       <c r="F10" s="3">
-        <v>1324600</v>
+        <v>1374500</v>
       </c>
       <c r="G10" s="3">
-        <v>861300</v>
+        <v>893700</v>
       </c>
       <c r="H10" s="3">
-        <v>1047100</v>
+        <v>1086500</v>
       </c>
       <c r="I10" s="3">
-        <v>1495900</v>
+        <v>1552200</v>
       </c>
       <c r="J10" s="3">
-        <v>-3817900</v>
+        <v>-3961700</v>
       </c>
       <c r="K10" s="3">
         <v>-861100</v>
@@ -824,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="G12" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H12" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="J12" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="K12" s="3">
         <v>17700</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="E14" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="F14" s="3">
+        <v>97000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>47500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>298000</v>
+      </c>
+      <c r="J14" s="3">
         <v>93500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-102400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>287200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>90200</v>
       </c>
       <c r="K14" s="3">
         <v>41900</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>101700</v>
+        <v>105600</v>
       </c>
       <c r="E15" s="3">
-        <v>70500</v>
+        <v>73100</v>
       </c>
       <c r="F15" s="3">
-        <v>54400</v>
+        <v>56400</v>
       </c>
       <c r="G15" s="3">
-        <v>46100</v>
+        <v>47900</v>
       </c>
       <c r="H15" s="3">
-        <v>55400</v>
+        <v>57500</v>
       </c>
       <c r="I15" s="3">
-        <v>58400</v>
+        <v>60600</v>
       </c>
       <c r="J15" s="3">
-        <v>48000</v>
+        <v>49800</v>
       </c>
       <c r="K15" s="3">
         <v>34200</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7475500</v>
+        <v>7757000</v>
       </c>
       <c r="E17" s="3">
-        <v>5824200</v>
+        <v>6043500</v>
       </c>
       <c r="F17" s="3">
-        <v>4422300</v>
+        <v>4588900</v>
       </c>
       <c r="G17" s="3">
-        <v>5031200</v>
+        <v>5220600</v>
       </c>
       <c r="H17" s="3">
-        <v>8149600</v>
+        <v>8456400</v>
       </c>
       <c r="I17" s="3">
-        <v>7851000</v>
+        <v>8146600</v>
       </c>
       <c r="J17" s="3">
-        <v>7489000</v>
+        <v>7771000</v>
       </c>
       <c r="K17" s="3">
         <v>5210900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1964400</v>
+        <v>2038400</v>
       </c>
       <c r="E18" s="3">
-        <v>1547800</v>
+        <v>1606000</v>
       </c>
       <c r="F18" s="3">
-        <v>234500</v>
+        <v>243300</v>
       </c>
       <c r="G18" s="3">
-        <v>63900</v>
+        <v>66400</v>
       </c>
       <c r="H18" s="3">
-        <v>299900</v>
+        <v>311200</v>
       </c>
       <c r="I18" s="3">
-        <v>43000</v>
+        <v>44600</v>
       </c>
       <c r="J18" s="3">
-        <v>649200</v>
+        <v>673600</v>
       </c>
       <c r="K18" s="3">
         <v>1774100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>770900</v>
+        <v>799900</v>
       </c>
       <c r="E20" s="3">
-        <v>486400</v>
+        <v>504700</v>
       </c>
       <c r="F20" s="3">
-        <v>492800</v>
+        <v>511300</v>
       </c>
       <c r="G20" s="3">
-        <v>370900</v>
+        <v>384800</v>
       </c>
       <c r="H20" s="3">
-        <v>229600</v>
+        <v>238300</v>
       </c>
       <c r="I20" s="3">
-        <v>122900</v>
+        <v>127600</v>
       </c>
       <c r="J20" s="3">
-        <v>606000</v>
+        <v>628800</v>
       </c>
       <c r="K20" s="3">
         <v>169900</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3617400</v>
+        <v>3753100</v>
       </c>
       <c r="E21" s="3">
-        <v>2683200</v>
+        <v>2783800</v>
       </c>
       <c r="F21" s="3">
-        <v>1308600</v>
+        <v>1357500</v>
       </c>
       <c r="G21" s="3">
-        <v>1057300</v>
+        <v>1096700</v>
       </c>
       <c r="H21" s="3">
-        <v>1114800</v>
+        <v>1156400</v>
       </c>
       <c r="I21" s="3">
-        <v>786700</v>
+        <v>816000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>505600</v>
+        <v>524600</v>
       </c>
       <c r="E22" s="3">
-        <v>455600</v>
+        <v>472800</v>
       </c>
       <c r="F22" s="3">
-        <v>350000</v>
+        <v>363200</v>
       </c>
       <c r="G22" s="3">
-        <v>347700</v>
+        <v>360800</v>
       </c>
       <c r="H22" s="3">
-        <v>305600</v>
+        <v>317100</v>
       </c>
       <c r="I22" s="3">
-        <v>247100</v>
+        <v>256400</v>
       </c>
       <c r="J22" s="3">
-        <v>405500</v>
+        <v>420800</v>
       </c>
       <c r="K22" s="3">
         <v>124600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2229700</v>
+        <v>2313700</v>
       </c>
       <c r="E23" s="3">
-        <v>1578500</v>
+        <v>1637900</v>
       </c>
       <c r="F23" s="3">
-        <v>377200</v>
+        <v>391400</v>
       </c>
       <c r="G23" s="3">
-        <v>87100</v>
+        <v>90400</v>
       </c>
       <c r="H23" s="3">
-        <v>223900</v>
+        <v>232400</v>
       </c>
       <c r="I23" s="3">
-        <v>-81200</v>
+        <v>-84300</v>
       </c>
       <c r="J23" s="3">
-        <v>849600</v>
+        <v>881600</v>
       </c>
       <c r="K23" s="3">
         <v>1819400</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>645000</v>
+        <v>669300</v>
       </c>
       <c r="E24" s="3">
-        <v>379900</v>
+        <v>394200</v>
       </c>
       <c r="F24" s="3">
-        <v>114300</v>
+        <v>118600</v>
       </c>
       <c r="G24" s="3">
-        <v>68500</v>
+        <v>71100</v>
       </c>
       <c r="H24" s="3">
-        <v>155700</v>
+        <v>161600</v>
       </c>
       <c r="I24" s="3">
-        <v>-55300</v>
+        <v>-57300</v>
       </c>
       <c r="J24" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="K24" s="3">
         <v>514500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1584700</v>
+        <v>1644400</v>
       </c>
       <c r="E26" s="3">
-        <v>1198600</v>
+        <v>1243700</v>
       </c>
       <c r="F26" s="3">
-        <v>262900</v>
+        <v>272800</v>
       </c>
       <c r="G26" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="H26" s="3">
-        <v>68200</v>
+        <v>70700</v>
       </c>
       <c r="I26" s="3">
-        <v>-26000</v>
+        <v>-26900</v>
       </c>
       <c r="J26" s="3">
-        <v>844500</v>
+        <v>876300</v>
       </c>
       <c r="K26" s="3">
         <v>1304900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1201200</v>
+        <v>1246400</v>
       </c>
       <c r="E27" s="3">
-        <v>1030500</v>
+        <v>1069300</v>
       </c>
       <c r="F27" s="3">
-        <v>230800</v>
+        <v>239500</v>
       </c>
       <c r="G27" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="H27" s="3">
-        <v>107200</v>
+        <v>111300</v>
       </c>
       <c r="I27" s="3">
-        <v>108800</v>
+        <v>112900</v>
       </c>
       <c r="J27" s="3">
-        <v>848900</v>
+        <v>880900</v>
       </c>
       <c r="K27" s="3">
         <v>1297900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-770900</v>
+        <v>-799900</v>
       </c>
       <c r="E32" s="3">
-        <v>-486400</v>
+        <v>-504700</v>
       </c>
       <c r="F32" s="3">
-        <v>-492800</v>
+        <v>-511300</v>
       </c>
       <c r="G32" s="3">
-        <v>-370900</v>
+        <v>-384800</v>
       </c>
       <c r="H32" s="3">
-        <v>-229600</v>
+        <v>-238300</v>
       </c>
       <c r="I32" s="3">
-        <v>-122900</v>
+        <v>-127600</v>
       </c>
       <c r="J32" s="3">
-        <v>-606000</v>
+        <v>-628800</v>
       </c>
       <c r="K32" s="3">
         <v>-169900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1201200</v>
+        <v>1246400</v>
       </c>
       <c r="E33" s="3">
-        <v>1030500</v>
+        <v>1069300</v>
       </c>
       <c r="F33" s="3">
-        <v>230800</v>
+        <v>239500</v>
       </c>
       <c r="G33" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="H33" s="3">
-        <v>107200</v>
+        <v>111300</v>
       </c>
       <c r="I33" s="3">
-        <v>108800</v>
+        <v>112900</v>
       </c>
       <c r="J33" s="3">
-        <v>848900</v>
+        <v>880900</v>
       </c>
       <c r="K33" s="3">
         <v>1297900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1201200</v>
+        <v>1246400</v>
       </c>
       <c r="E35" s="3">
-        <v>1030500</v>
+        <v>1069300</v>
       </c>
       <c r="F35" s="3">
-        <v>230800</v>
+        <v>239500</v>
       </c>
       <c r="G35" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="H35" s="3">
-        <v>107200</v>
+        <v>111300</v>
       </c>
       <c r="I35" s="3">
-        <v>108800</v>
+        <v>112900</v>
       </c>
       <c r="J35" s="3">
-        <v>848900</v>
+        <v>880900</v>
       </c>
       <c r="K35" s="3">
         <v>1297900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3836600</v>
+        <v>3975400</v>
       </c>
       <c r="E41" s="3">
-        <v>2953600</v>
+        <v>3060500</v>
       </c>
       <c r="F41" s="3">
-        <v>2301800</v>
+        <v>2385100</v>
       </c>
       <c r="G41" s="3">
-        <v>2827700</v>
+        <v>2930000</v>
       </c>
       <c r="H41" s="3">
-        <v>2108300</v>
+        <v>2184500</v>
       </c>
       <c r="I41" s="3">
-        <v>1530900</v>
+        <v>1586300</v>
       </c>
       <c r="J41" s="3">
-        <v>1782500</v>
+        <v>1846900</v>
       </c>
       <c r="K41" s="3">
         <v>1208800</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="F42" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>446700</v>
+        <v>462800</v>
       </c>
       <c r="K42" s="3">
         <v>1416300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2427600</v>
+        <v>2515500</v>
       </c>
       <c r="E43" s="3">
-        <v>2949200</v>
+        <v>3055900</v>
       </c>
       <c r="F43" s="3">
-        <v>1663500</v>
+        <v>1723700</v>
       </c>
       <c r="G43" s="3">
-        <v>1114000</v>
+        <v>1154300</v>
       </c>
       <c r="H43" s="3">
-        <v>1247700</v>
+        <v>1292800</v>
       </c>
       <c r="I43" s="3">
-        <v>1284600</v>
+        <v>1331000</v>
       </c>
       <c r="J43" s="3">
-        <v>2273200</v>
+        <v>2355400</v>
       </c>
       <c r="K43" s="3">
         <v>1163100</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1021200</v>
+        <v>1058100</v>
       </c>
       <c r="E44" s="3">
-        <v>842000</v>
+        <v>872500</v>
       </c>
       <c r="F44" s="3">
-        <v>709100</v>
+        <v>734700</v>
       </c>
       <c r="G44" s="3">
-        <v>639100</v>
+        <v>662200</v>
       </c>
       <c r="H44" s="3">
-        <v>487700</v>
+        <v>505300</v>
       </c>
       <c r="I44" s="3">
-        <v>222700</v>
+        <v>230800</v>
       </c>
       <c r="J44" s="3">
-        <v>438800</v>
+        <v>454700</v>
       </c>
       <c r="K44" s="3">
         <v>206500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1801200</v>
+        <v>1866400</v>
       </c>
       <c r="E45" s="3">
-        <v>2390700</v>
+        <v>2477200</v>
       </c>
       <c r="F45" s="3">
-        <v>1125500</v>
+        <v>1166200</v>
       </c>
       <c r="G45" s="3">
-        <v>2260500</v>
+        <v>2342300</v>
       </c>
       <c r="H45" s="3">
-        <v>1494600</v>
+        <v>1548600</v>
       </c>
       <c r="I45" s="3">
-        <v>1380200</v>
+        <v>1430200</v>
       </c>
       <c r="J45" s="3">
-        <v>1621800</v>
+        <v>1680400</v>
       </c>
       <c r="K45" s="3">
         <v>521600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9086700</v>
+        <v>9415400</v>
       </c>
       <c r="E46" s="3">
-        <v>9145200</v>
+        <v>9476000</v>
       </c>
       <c r="F46" s="3">
-        <v>5818200</v>
+        <v>6028700</v>
       </c>
       <c r="G46" s="3">
-        <v>6841400</v>
+        <v>7088800</v>
       </c>
       <c r="H46" s="3">
-        <v>5338200</v>
+        <v>5531300</v>
       </c>
       <c r="I46" s="3">
-        <v>4418500</v>
+        <v>4578300</v>
       </c>
       <c r="J46" s="3">
-        <v>4181500</v>
+        <v>4332700</v>
       </c>
       <c r="K46" s="3">
         <v>4516300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3702400</v>
+        <v>3836300</v>
       </c>
       <c r="E47" s="3">
-        <v>2668900</v>
+        <v>2765400</v>
       </c>
       <c r="F47" s="3">
-        <v>1895000</v>
+        <v>1963500</v>
       </c>
       <c r="G47" s="3">
-        <v>771900</v>
+        <v>799800</v>
       </c>
       <c r="H47" s="3">
-        <v>673700</v>
+        <v>698100</v>
       </c>
       <c r="I47" s="3">
-        <v>911300</v>
+        <v>944300</v>
       </c>
       <c r="J47" s="3">
-        <v>1598700</v>
+        <v>1656600</v>
       </c>
       <c r="K47" s="3">
         <v>732300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8047600</v>
+        <v>8338700</v>
       </c>
       <c r="E48" s="3">
-        <v>7244800</v>
+        <v>7506900</v>
       </c>
       <c r="F48" s="3">
-        <v>5880100</v>
+        <v>6092800</v>
       </c>
       <c r="G48" s="3">
-        <v>6393500</v>
+        <v>6624800</v>
       </c>
       <c r="H48" s="3">
-        <v>6191500</v>
+        <v>6415500</v>
       </c>
       <c r="I48" s="3">
-        <v>5872200</v>
+        <v>6084600</v>
       </c>
       <c r="J48" s="3">
-        <v>5228500</v>
+        <v>5417600</v>
       </c>
       <c r="K48" s="3">
         <v>4641300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6940800</v>
+        <v>7191800</v>
       </c>
       <c r="E49" s="3">
-        <v>7272400</v>
+        <v>7535400</v>
       </c>
       <c r="F49" s="3">
-        <v>5922300</v>
+        <v>6136500</v>
       </c>
       <c r="G49" s="3">
-        <v>4841000</v>
+        <v>5016200</v>
       </c>
       <c r="H49" s="3">
-        <v>5539200</v>
+        <v>5739500</v>
       </c>
       <c r="I49" s="3">
-        <v>5706900</v>
+        <v>5913300</v>
       </c>
       <c r="J49" s="3">
-        <v>9789100</v>
+        <v>10143200</v>
       </c>
       <c r="K49" s="3">
         <v>4166100</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1096100</v>
+        <v>1135700</v>
       </c>
       <c r="E52" s="3">
-        <v>1324000</v>
+        <v>1371900</v>
       </c>
       <c r="F52" s="3">
-        <v>1151800</v>
+        <v>1193400</v>
       </c>
       <c r="G52" s="3">
-        <v>1121000</v>
+        <v>1161600</v>
       </c>
       <c r="H52" s="3">
-        <v>912500</v>
+        <v>945500</v>
       </c>
       <c r="I52" s="3">
-        <v>955700</v>
+        <v>990200</v>
       </c>
       <c r="J52" s="3">
-        <v>1056200</v>
+        <v>1094400</v>
       </c>
       <c r="K52" s="3">
         <v>362300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28873500</v>
+        <v>29917900</v>
       </c>
       <c r="E54" s="3">
-        <v>27655300</v>
+        <v>28655700</v>
       </c>
       <c r="F54" s="3">
-        <v>20667400</v>
+        <v>21415000</v>
       </c>
       <c r="G54" s="3">
-        <v>19968900</v>
+        <v>20691200</v>
       </c>
       <c r="H54" s="3">
-        <v>18655000</v>
+        <v>19329800</v>
       </c>
       <c r="I54" s="3">
-        <v>17864500</v>
+        <v>18510800</v>
       </c>
       <c r="J54" s="3">
-        <v>17122700</v>
+        <v>17742000</v>
       </c>
       <c r="K54" s="3">
         <v>14418300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1884300</v>
+        <v>1952500</v>
       </c>
       <c r="E57" s="3">
-        <v>1354800</v>
+        <v>1403900</v>
       </c>
       <c r="F57" s="3">
-        <v>864100</v>
+        <v>895300</v>
       </c>
       <c r="G57" s="3">
-        <v>616400</v>
+        <v>638700</v>
       </c>
       <c r="H57" s="3">
-        <v>592500</v>
+        <v>614000</v>
       </c>
       <c r="I57" s="3">
-        <v>387000</v>
+        <v>401000</v>
       </c>
       <c r="J57" s="3">
-        <v>1515200</v>
+        <v>1570000</v>
       </c>
       <c r="K57" s="3">
         <v>384900</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2813000</v>
+        <v>2914700</v>
       </c>
       <c r="E58" s="3">
-        <v>3889600</v>
+        <v>4030300</v>
       </c>
       <c r="F58" s="3">
-        <v>4308800</v>
+        <v>4464700</v>
       </c>
       <c r="G58" s="3">
-        <v>3350300</v>
+        <v>3471500</v>
       </c>
       <c r="H58" s="3">
-        <v>1523800</v>
+        <v>1578900</v>
       </c>
       <c r="I58" s="3">
-        <v>1580300</v>
+        <v>1637500</v>
       </c>
       <c r="J58" s="3">
-        <v>2218000</v>
+        <v>2298200</v>
       </c>
       <c r="K58" s="3">
         <v>2907600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3656300</v>
+        <v>3788600</v>
       </c>
       <c r="E59" s="3">
-        <v>3687300</v>
+        <v>3820600</v>
       </c>
       <c r="F59" s="3">
-        <v>2029100</v>
+        <v>2102500</v>
       </c>
       <c r="G59" s="3">
-        <v>1928000</v>
+        <v>1997700</v>
       </c>
       <c r="H59" s="3">
-        <v>1714200</v>
+        <v>1776200</v>
       </c>
       <c r="I59" s="3">
-        <v>2071500</v>
+        <v>2146400</v>
       </c>
       <c r="J59" s="3">
-        <v>3034400</v>
+        <v>3144200</v>
       </c>
       <c r="K59" s="3">
         <v>1860500</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8353600</v>
+        <v>8655800</v>
       </c>
       <c r="E60" s="3">
-        <v>8931700</v>
+        <v>9254800</v>
       </c>
       <c r="F60" s="3">
-        <v>7202000</v>
+        <v>7462500</v>
       </c>
       <c r="G60" s="3">
-        <v>5894600</v>
+        <v>6107800</v>
       </c>
       <c r="H60" s="3">
-        <v>3830600</v>
+        <v>3969100</v>
       </c>
       <c r="I60" s="3">
-        <v>4038800</v>
+        <v>4184900</v>
       </c>
       <c r="J60" s="3">
-        <v>4011800</v>
+        <v>4156900</v>
       </c>
       <c r="K60" s="3">
         <v>5153000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6812900</v>
+        <v>7059400</v>
       </c>
       <c r="E61" s="3">
-        <v>5972100</v>
+        <v>6188200</v>
       </c>
       <c r="F61" s="3">
-        <v>4882600</v>
+        <v>5059200</v>
       </c>
       <c r="G61" s="3">
-        <v>6476500</v>
+        <v>6710700</v>
       </c>
       <c r="H61" s="3">
-        <v>7087400</v>
+        <v>7343800</v>
       </c>
       <c r="I61" s="3">
-        <v>6181000</v>
+        <v>6404600</v>
       </c>
       <c r="J61" s="3">
-        <v>4665100</v>
+        <v>4833800</v>
       </c>
       <c r="K61" s="3">
         <v>2206800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1506700</v>
+        <v>1561200</v>
       </c>
       <c r="E62" s="3">
-        <v>1581300</v>
+        <v>1638500</v>
       </c>
       <c r="F62" s="3">
-        <v>1097800</v>
+        <v>1137500</v>
       </c>
       <c r="G62" s="3">
-        <v>1178200</v>
+        <v>1220800</v>
       </c>
       <c r="H62" s="3">
-        <v>1289900</v>
+        <v>1336600</v>
       </c>
       <c r="I62" s="3">
-        <v>1479600</v>
+        <v>1533100</v>
       </c>
       <c r="J62" s="3">
-        <v>1885000</v>
+        <v>1953200</v>
       </c>
       <c r="K62" s="3">
         <v>628600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19649400</v>
+        <v>20360200</v>
       </c>
       <c r="E66" s="3">
-        <v>19234400</v>
+        <v>19930200</v>
       </c>
       <c r="F66" s="3">
-        <v>14527800</v>
+        <v>15053300</v>
       </c>
       <c r="G66" s="3">
-        <v>13817300</v>
+        <v>14317100</v>
       </c>
       <c r="H66" s="3">
-        <v>12613800</v>
+        <v>13070100</v>
       </c>
       <c r="I66" s="3">
-        <v>12205100</v>
+        <v>12646600</v>
       </c>
       <c r="J66" s="3">
-        <v>10741200</v>
+        <v>11129700</v>
       </c>
       <c r="K66" s="3">
         <v>8090900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7326800</v>
+        <v>7591900</v>
       </c>
       <c r="E72" s="3">
-        <v>6447800</v>
+        <v>6681100</v>
       </c>
       <c r="F72" s="3">
-        <v>5427700</v>
+        <v>5624000</v>
       </c>
       <c r="G72" s="3">
-        <v>5200700</v>
+        <v>5388800</v>
       </c>
       <c r="H72" s="3">
-        <v>5194100</v>
+        <v>5382000</v>
       </c>
       <c r="I72" s="3">
-        <v>5100500</v>
+        <v>5285000</v>
       </c>
       <c r="J72" s="3">
-        <v>6652900</v>
+        <v>6893600</v>
       </c>
       <c r="K72" s="3">
         <v>5216400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9224100</v>
+        <v>9557800</v>
       </c>
       <c r="E76" s="3">
-        <v>8420900</v>
+        <v>8725600</v>
       </c>
       <c r="F76" s="3">
-        <v>6139600</v>
+        <v>6361700</v>
       </c>
       <c r="G76" s="3">
-        <v>6151600</v>
+        <v>6374100</v>
       </c>
       <c r="H76" s="3">
-        <v>6041200</v>
+        <v>6259700</v>
       </c>
       <c r="I76" s="3">
-        <v>5659500</v>
+        <v>5864200</v>
       </c>
       <c r="J76" s="3">
-        <v>6381500</v>
+        <v>6612300</v>
       </c>
       <c r="K76" s="3">
         <v>6327400</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1201200</v>
+        <v>1246400</v>
       </c>
       <c r="E81" s="3">
-        <v>1030500</v>
+        <v>1069300</v>
       </c>
       <c r="F81" s="3">
-        <v>230800</v>
+        <v>239500</v>
       </c>
       <c r="G81" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="H81" s="3">
-        <v>107200</v>
+        <v>111300</v>
       </c>
       <c r="I81" s="3">
-        <v>108800</v>
+        <v>112900</v>
       </c>
       <c r="J81" s="3">
-        <v>848900</v>
+        <v>880900</v>
       </c>
       <c r="K81" s="3">
         <v>1297900</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>885000</v>
+        <v>918300</v>
       </c>
       <c r="E83" s="3">
-        <v>651200</v>
+        <v>675700</v>
       </c>
       <c r="F83" s="3">
-        <v>583200</v>
+        <v>605200</v>
       </c>
       <c r="G83" s="3">
-        <v>624500</v>
+        <v>648000</v>
       </c>
       <c r="H83" s="3">
-        <v>587200</v>
+        <v>609300</v>
       </c>
       <c r="I83" s="3">
-        <v>622800</v>
+        <v>646300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2553300</v>
+        <v>2649500</v>
       </c>
       <c r="E89" s="3">
-        <v>1702000</v>
+        <v>1766100</v>
       </c>
       <c r="F89" s="3">
-        <v>1570400</v>
+        <v>1629600</v>
       </c>
       <c r="G89" s="3">
-        <v>284000</v>
+        <v>294700</v>
       </c>
       <c r="H89" s="3">
-        <v>583900</v>
+        <v>605900</v>
       </c>
       <c r="I89" s="3">
-        <v>-308100</v>
+        <v>-319700</v>
       </c>
       <c r="J89" s="3">
-        <v>910200</v>
+        <v>944500</v>
       </c>
       <c r="K89" s="3">
         <v>2668000</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1410400</v>
+        <v>-1463500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1082200</v>
+        <v>-1123000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1089500</v>
+        <v>-1130500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1722900</v>
+        <v>-1787800</v>
       </c>
       <c r="H91" s="3">
-        <v>-811800</v>
+        <v>-842400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1430600</v>
+        <v>-1484500</v>
       </c>
       <c r="J91" s="3">
-        <v>-872000</v>
+        <v>-904800</v>
       </c>
       <c r="K91" s="3">
         <v>-1279200</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1423700</v>
+        <v>-1477300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4316600</v>
+        <v>-4479100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2093100</v>
+        <v>-2172000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1148100</v>
+        <v>-1191400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1194500</v>
+        <v>-1239500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1890100</v>
+        <v>-1961200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-329700</v>
+        <v>-342100</v>
       </c>
       <c r="E96" s="3">
-        <v>-77100</v>
+        <v>-80000</v>
       </c>
       <c r="F96" s="3">
-        <v>-6900</v>
+        <v>-7200</v>
       </c>
       <c r="G96" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="H96" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="I96" s="3">
-        <v>-247800</v>
+        <v>-257100</v>
       </c>
       <c r="J96" s="3">
-        <v>-392400</v>
+        <v>-407200</v>
       </c>
       <c r="K96" s="3">
         <v>-430700</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-264700</v>
+        <v>-274700</v>
       </c>
       <c r="E100" s="3">
-        <v>3300200</v>
+        <v>3424500</v>
       </c>
       <c r="F100" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G100" s="3">
-        <v>1549900</v>
+        <v>1608200</v>
       </c>
       <c r="H100" s="3">
-        <v>1216600</v>
+        <v>1262400</v>
       </c>
       <c r="I100" s="3">
-        <v>1859600</v>
+        <v>1929700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="E101" s="3">
-        <v>-34800</v>
+        <v>-36100</v>
       </c>
       <c r="F101" s="3">
-        <v>-7900</v>
+        <v>-8200</v>
       </c>
       <c r="G101" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="H101" s="3">
-        <v>-29400</v>
+        <v>-30500</v>
       </c>
       <c r="I101" s="3">
-        <v>87300</v>
+        <v>90600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>881700</v>
+        <v>914900</v>
       </c>
       <c r="E102" s="3">
-        <v>650900</v>
+        <v>675400</v>
       </c>
       <c r="F102" s="3">
-        <v>-525200</v>
+        <v>-545000</v>
       </c>
       <c r="G102" s="3">
-        <v>718400</v>
+        <v>745500</v>
       </c>
       <c r="H102" s="3">
-        <v>576500</v>
+        <v>598200</v>
       </c>
       <c r="I102" s="3">
-        <v>-251200</v>
+        <v>-260600</v>
       </c>
       <c r="J102" s="3">
-        <v>639900</v>
+        <v>664000</v>
       </c>
       <c r="K102" s="3">
         <v>203900</v>

--- a/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9795300</v>
+        <v>10260100</v>
       </c>
       <c r="E8" s="3">
-        <v>7649600</v>
+        <v>8012500</v>
       </c>
       <c r="F8" s="3">
-        <v>4832200</v>
+        <v>5061400</v>
       </c>
       <c r="G8" s="3">
-        <v>5287000</v>
+        <v>5537800</v>
       </c>
       <c r="H8" s="3">
-        <v>8767600</v>
+        <v>9183600</v>
       </c>
       <c r="I8" s="3">
-        <v>8191200</v>
+        <v>8579800</v>
       </c>
       <c r="J8" s="3">
-        <v>8444600</v>
+        <v>8845200</v>
       </c>
       <c r="K8" s="3">
         <v>6985000</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6265300</v>
+        <v>6562500</v>
       </c>
       <c r="E9" s="3">
-        <v>4902500</v>
+        <v>5135100</v>
       </c>
       <c r="F9" s="3">
-        <v>3457700</v>
+        <v>3621700</v>
       </c>
       <c r="G9" s="3">
-        <v>4393300</v>
+        <v>4601700</v>
       </c>
       <c r="H9" s="3">
-        <v>7681100</v>
+        <v>8045500</v>
       </c>
       <c r="I9" s="3">
-        <v>6639100</v>
+        <v>6954000</v>
       </c>
       <c r="J9" s="3">
-        <v>12406200</v>
+        <v>12994800</v>
       </c>
       <c r="K9" s="3">
         <v>7846200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3530000</v>
+        <v>3697500</v>
       </c>
       <c r="E10" s="3">
-        <v>2747100</v>
+        <v>2877400</v>
       </c>
       <c r="F10" s="3">
-        <v>1374500</v>
+        <v>1439700</v>
       </c>
       <c r="G10" s="3">
-        <v>893700</v>
+        <v>936100</v>
       </c>
       <c r="H10" s="3">
-        <v>1086500</v>
+        <v>1138100</v>
       </c>
       <c r="I10" s="3">
-        <v>1552200</v>
+        <v>1625800</v>
       </c>
       <c r="J10" s="3">
-        <v>-3961700</v>
+        <v>-4149600</v>
       </c>
       <c r="K10" s="3">
         <v>-861100</v>
@@ -824,19 +824,19 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="G12" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="H12" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="I12" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J12" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="K12" s="3">
         <v>17700</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-14300</v>
+        <v>-15000</v>
       </c>
       <c r="E14" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="F14" s="3">
-        <v>97000</v>
+        <v>101600</v>
       </c>
       <c r="G14" s="3">
-        <v>47500</v>
+        <v>49700</v>
       </c>
       <c r="H14" s="3">
-        <v>-106200</v>
+        <v>-111300</v>
       </c>
       <c r="I14" s="3">
-        <v>298000</v>
+        <v>312200</v>
       </c>
       <c r="J14" s="3">
-        <v>93500</v>
+        <v>98000</v>
       </c>
       <c r="K14" s="3">
         <v>41900</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>105600</v>
+        <v>110600</v>
       </c>
       <c r="E15" s="3">
-        <v>73100</v>
+        <v>76600</v>
       </c>
       <c r="F15" s="3">
-        <v>56400</v>
+        <v>59100</v>
       </c>
       <c r="G15" s="3">
-        <v>47900</v>
+        <v>50100</v>
       </c>
       <c r="H15" s="3">
-        <v>57500</v>
+        <v>60300</v>
       </c>
       <c r="I15" s="3">
-        <v>60600</v>
+        <v>63500</v>
       </c>
       <c r="J15" s="3">
-        <v>49800</v>
+        <v>52200</v>
       </c>
       <c r="K15" s="3">
         <v>34200</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7757000</v>
+        <v>8125000</v>
       </c>
       <c r="E17" s="3">
-        <v>6043500</v>
+        <v>6330200</v>
       </c>
       <c r="F17" s="3">
-        <v>4588900</v>
+        <v>4806600</v>
       </c>
       <c r="G17" s="3">
-        <v>5220600</v>
+        <v>5468300</v>
       </c>
       <c r="H17" s="3">
-        <v>8456400</v>
+        <v>8857600</v>
       </c>
       <c r="I17" s="3">
-        <v>8146600</v>
+        <v>8533100</v>
       </c>
       <c r="J17" s="3">
-        <v>7771000</v>
+        <v>8139600</v>
       </c>
       <c r="K17" s="3">
         <v>5210900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2038400</v>
+        <v>2135100</v>
       </c>
       <c r="E18" s="3">
-        <v>1606000</v>
+        <v>1682200</v>
       </c>
       <c r="F18" s="3">
-        <v>243300</v>
+        <v>254800</v>
       </c>
       <c r="G18" s="3">
-        <v>66400</v>
+        <v>69500</v>
       </c>
       <c r="H18" s="3">
-        <v>311200</v>
+        <v>326000</v>
       </c>
       <c r="I18" s="3">
-        <v>44600</v>
+        <v>46700</v>
       </c>
       <c r="J18" s="3">
-        <v>673600</v>
+        <v>705600</v>
       </c>
       <c r="K18" s="3">
         <v>1774100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>799900</v>
+        <v>837900</v>
       </c>
       <c r="E20" s="3">
-        <v>504700</v>
+        <v>528600</v>
       </c>
       <c r="F20" s="3">
-        <v>511300</v>
+        <v>535600</v>
       </c>
       <c r="G20" s="3">
-        <v>384800</v>
+        <v>403100</v>
       </c>
       <c r="H20" s="3">
-        <v>238300</v>
+        <v>249600</v>
       </c>
       <c r="I20" s="3">
-        <v>127600</v>
+        <v>133600</v>
       </c>
       <c r="J20" s="3">
-        <v>628800</v>
+        <v>658600</v>
       </c>
       <c r="K20" s="3">
         <v>169900</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3753100</v>
+        <v>3934700</v>
       </c>
       <c r="E21" s="3">
-        <v>2783800</v>
+        <v>2918500</v>
       </c>
       <c r="F21" s="3">
-        <v>1357500</v>
+        <v>1424300</v>
       </c>
       <c r="G21" s="3">
-        <v>1096700</v>
+        <v>1151300</v>
       </c>
       <c r="H21" s="3">
-        <v>1156400</v>
+        <v>1213700</v>
       </c>
       <c r="I21" s="3">
-        <v>816000</v>
+        <v>857200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>524600</v>
+        <v>549500</v>
       </c>
       <c r="E22" s="3">
-        <v>472800</v>
+        <v>495200</v>
       </c>
       <c r="F22" s="3">
-        <v>363200</v>
+        <v>380500</v>
       </c>
       <c r="G22" s="3">
-        <v>360800</v>
+        <v>377900</v>
       </c>
       <c r="H22" s="3">
-        <v>317100</v>
+        <v>332200</v>
       </c>
       <c r="I22" s="3">
-        <v>256400</v>
+        <v>268600</v>
       </c>
       <c r="J22" s="3">
-        <v>420800</v>
+        <v>440700</v>
       </c>
       <c r="K22" s="3">
         <v>124600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2313700</v>
+        <v>2423400</v>
       </c>
       <c r="E23" s="3">
-        <v>1637900</v>
+        <v>1715600</v>
       </c>
       <c r="F23" s="3">
-        <v>391400</v>
+        <v>410000</v>
       </c>
       <c r="G23" s="3">
-        <v>90400</v>
+        <v>94700</v>
       </c>
       <c r="H23" s="3">
-        <v>232400</v>
+        <v>243400</v>
       </c>
       <c r="I23" s="3">
-        <v>-84300</v>
+        <v>-88300</v>
       </c>
       <c r="J23" s="3">
-        <v>881600</v>
+        <v>923400</v>
       </c>
       <c r="K23" s="3">
         <v>1819400</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>669300</v>
+        <v>701000</v>
       </c>
       <c r="E24" s="3">
-        <v>394200</v>
+        <v>413000</v>
       </c>
       <c r="F24" s="3">
-        <v>118600</v>
+        <v>124300</v>
       </c>
       <c r="G24" s="3">
-        <v>71100</v>
+        <v>74500</v>
       </c>
       <c r="H24" s="3">
-        <v>161600</v>
+        <v>169300</v>
       </c>
       <c r="I24" s="3">
-        <v>-57300</v>
+        <v>-60100</v>
       </c>
       <c r="J24" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K24" s="3">
         <v>514500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1644400</v>
+        <v>1722400</v>
       </c>
       <c r="E26" s="3">
-        <v>1243700</v>
+        <v>1302700</v>
       </c>
       <c r="F26" s="3">
-        <v>272800</v>
+        <v>285700</v>
       </c>
       <c r="G26" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="H26" s="3">
-        <v>70700</v>
+        <v>74100</v>
       </c>
       <c r="I26" s="3">
-        <v>-26900</v>
+        <v>-28200</v>
       </c>
       <c r="J26" s="3">
-        <v>876300</v>
+        <v>917900</v>
       </c>
       <c r="K26" s="3">
         <v>1304900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1246400</v>
+        <v>1305600</v>
       </c>
       <c r="E27" s="3">
-        <v>1069300</v>
+        <v>1120000</v>
       </c>
       <c r="F27" s="3">
-        <v>239500</v>
+        <v>250900</v>
       </c>
       <c r="G27" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="H27" s="3">
-        <v>111300</v>
+        <v>116500</v>
       </c>
       <c r="I27" s="3">
-        <v>112900</v>
+        <v>118300</v>
       </c>
       <c r="J27" s="3">
-        <v>880900</v>
+        <v>922700</v>
       </c>
       <c r="K27" s="3">
         <v>1297900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-799900</v>
+        <v>-837900</v>
       </c>
       <c r="E32" s="3">
-        <v>-504700</v>
+        <v>-528600</v>
       </c>
       <c r="F32" s="3">
-        <v>-511300</v>
+        <v>-535600</v>
       </c>
       <c r="G32" s="3">
-        <v>-384800</v>
+        <v>-403100</v>
       </c>
       <c r="H32" s="3">
-        <v>-238300</v>
+        <v>-249600</v>
       </c>
       <c r="I32" s="3">
-        <v>-127600</v>
+        <v>-133600</v>
       </c>
       <c r="J32" s="3">
-        <v>-628800</v>
+        <v>-658600</v>
       </c>
       <c r="K32" s="3">
         <v>-169900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1246400</v>
+        <v>1305600</v>
       </c>
       <c r="E33" s="3">
-        <v>1069300</v>
+        <v>1120000</v>
       </c>
       <c r="F33" s="3">
-        <v>239500</v>
+        <v>250900</v>
       </c>
       <c r="G33" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="H33" s="3">
-        <v>111300</v>
+        <v>116500</v>
       </c>
       <c r="I33" s="3">
-        <v>112900</v>
+        <v>118300</v>
       </c>
       <c r="J33" s="3">
-        <v>880900</v>
+        <v>922700</v>
       </c>
       <c r="K33" s="3">
         <v>1297900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1246400</v>
+        <v>1305600</v>
       </c>
       <c r="E35" s="3">
-        <v>1069300</v>
+        <v>1120000</v>
       </c>
       <c r="F35" s="3">
-        <v>239500</v>
+        <v>250900</v>
       </c>
       <c r="G35" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="H35" s="3">
-        <v>111300</v>
+        <v>116500</v>
       </c>
       <c r="I35" s="3">
-        <v>112900</v>
+        <v>118300</v>
       </c>
       <c r="J35" s="3">
-        <v>880900</v>
+        <v>922700</v>
       </c>
       <c r="K35" s="3">
         <v>1297900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3975400</v>
+        <v>4164000</v>
       </c>
       <c r="E41" s="3">
-        <v>3060500</v>
+        <v>3205700</v>
       </c>
       <c r="F41" s="3">
-        <v>2385100</v>
+        <v>2498200</v>
       </c>
       <c r="G41" s="3">
-        <v>2930000</v>
+        <v>3069000</v>
       </c>
       <c r="H41" s="3">
-        <v>2184500</v>
+        <v>2288200</v>
       </c>
       <c r="I41" s="3">
-        <v>1586300</v>
+        <v>1661600</v>
       </c>
       <c r="J41" s="3">
-        <v>1846900</v>
+        <v>1934600</v>
       </c>
       <c r="K41" s="3">
         <v>1208800</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="F42" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>462800</v>
+        <v>484800</v>
       </c>
       <c r="K42" s="3">
         <v>1416300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2515500</v>
+        <v>2634800</v>
       </c>
       <c r="E43" s="3">
-        <v>3055900</v>
+        <v>3200800</v>
       </c>
       <c r="F43" s="3">
-        <v>1723700</v>
+        <v>1805500</v>
       </c>
       <c r="G43" s="3">
-        <v>1154300</v>
+        <v>1209100</v>
       </c>
       <c r="H43" s="3">
-        <v>1292800</v>
+        <v>1354100</v>
       </c>
       <c r="I43" s="3">
-        <v>1331000</v>
+        <v>1394200</v>
       </c>
       <c r="J43" s="3">
-        <v>2355400</v>
+        <v>2467200</v>
       </c>
       <c r="K43" s="3">
         <v>1163100</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1058100</v>
+        <v>1108300</v>
       </c>
       <c r="E44" s="3">
-        <v>872500</v>
+        <v>913900</v>
       </c>
       <c r="F44" s="3">
-        <v>734700</v>
+        <v>769600</v>
       </c>
       <c r="G44" s="3">
-        <v>662200</v>
+        <v>693600</v>
       </c>
       <c r="H44" s="3">
-        <v>505300</v>
+        <v>529300</v>
       </c>
       <c r="I44" s="3">
-        <v>230800</v>
+        <v>241800</v>
       </c>
       <c r="J44" s="3">
-        <v>454700</v>
+        <v>476300</v>
       </c>
       <c r="K44" s="3">
         <v>206500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1866400</v>
+        <v>1954900</v>
       </c>
       <c r="E45" s="3">
-        <v>2477200</v>
+        <v>2594700</v>
       </c>
       <c r="F45" s="3">
-        <v>1166200</v>
+        <v>1221600</v>
       </c>
       <c r="G45" s="3">
-        <v>2342300</v>
+        <v>2453400</v>
       </c>
       <c r="H45" s="3">
-        <v>1548600</v>
+        <v>1622100</v>
       </c>
       <c r="I45" s="3">
-        <v>1430200</v>
+        <v>1498000</v>
       </c>
       <c r="J45" s="3">
-        <v>1680400</v>
+        <v>1760200</v>
       </c>
       <c r="K45" s="3">
         <v>521600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9415400</v>
+        <v>9862000</v>
       </c>
       <c r="E46" s="3">
-        <v>9476000</v>
+        <v>9925600</v>
       </c>
       <c r="F46" s="3">
-        <v>6028700</v>
+        <v>6314700</v>
       </c>
       <c r="G46" s="3">
-        <v>7088800</v>
+        <v>7425100</v>
       </c>
       <c r="H46" s="3">
-        <v>5531300</v>
+        <v>5793700</v>
       </c>
       <c r="I46" s="3">
-        <v>4578300</v>
+        <v>4795500</v>
       </c>
       <c r="J46" s="3">
-        <v>4332700</v>
+        <v>4538300</v>
       </c>
       <c r="K46" s="3">
         <v>4516300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3836300</v>
+        <v>4018300</v>
       </c>
       <c r="E47" s="3">
-        <v>2765400</v>
+        <v>2896600</v>
       </c>
       <c r="F47" s="3">
-        <v>1963500</v>
+        <v>2056700</v>
       </c>
       <c r="G47" s="3">
-        <v>799800</v>
+        <v>837800</v>
       </c>
       <c r="H47" s="3">
-        <v>698100</v>
+        <v>731200</v>
       </c>
       <c r="I47" s="3">
-        <v>944300</v>
+        <v>989100</v>
       </c>
       <c r="J47" s="3">
-        <v>1656600</v>
+        <v>1735100</v>
       </c>
       <c r="K47" s="3">
         <v>732300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8338700</v>
+        <v>8734300</v>
       </c>
       <c r="E48" s="3">
-        <v>7506900</v>
+        <v>7863000</v>
       </c>
       <c r="F48" s="3">
-        <v>6092800</v>
+        <v>6381900</v>
       </c>
       <c r="G48" s="3">
-        <v>6624800</v>
+        <v>6939100</v>
       </c>
       <c r="H48" s="3">
-        <v>6415500</v>
+        <v>6719800</v>
       </c>
       <c r="I48" s="3">
-        <v>6084600</v>
+        <v>6373300</v>
       </c>
       <c r="J48" s="3">
-        <v>5417600</v>
+        <v>5674700</v>
       </c>
       <c r="K48" s="3">
         <v>4641300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7191800</v>
+        <v>7533000</v>
       </c>
       <c r="E49" s="3">
-        <v>7535400</v>
+        <v>7892900</v>
       </c>
       <c r="F49" s="3">
-        <v>6136500</v>
+        <v>6427600</v>
       </c>
       <c r="G49" s="3">
-        <v>5016200</v>
+        <v>5254100</v>
       </c>
       <c r="H49" s="3">
-        <v>5739500</v>
+        <v>6011800</v>
       </c>
       <c r="I49" s="3">
-        <v>5913300</v>
+        <v>6193900</v>
       </c>
       <c r="J49" s="3">
-        <v>10143200</v>
+        <v>10624400</v>
       </c>
       <c r="K49" s="3">
         <v>4166100</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1135700</v>
+        <v>1189600</v>
       </c>
       <c r="E52" s="3">
-        <v>1371900</v>
+        <v>1437000</v>
       </c>
       <c r="F52" s="3">
-        <v>1193400</v>
+        <v>1250000</v>
       </c>
       <c r="G52" s="3">
-        <v>1161600</v>
+        <v>1216700</v>
       </c>
       <c r="H52" s="3">
-        <v>945500</v>
+        <v>990300</v>
       </c>
       <c r="I52" s="3">
-        <v>990200</v>
+        <v>1037200</v>
       </c>
       <c r="J52" s="3">
-        <v>1094400</v>
+        <v>1146300</v>
       </c>
       <c r="K52" s="3">
         <v>362300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29917900</v>
+        <v>31337300</v>
       </c>
       <c r="E54" s="3">
-        <v>28655700</v>
+        <v>30015200</v>
       </c>
       <c r="F54" s="3">
-        <v>21415000</v>
+        <v>22430900</v>
       </c>
       <c r="G54" s="3">
-        <v>20691200</v>
+        <v>21672800</v>
       </c>
       <c r="H54" s="3">
-        <v>19329800</v>
+        <v>20246900</v>
       </c>
       <c r="I54" s="3">
-        <v>18510800</v>
+        <v>19388900</v>
       </c>
       <c r="J54" s="3">
-        <v>17742000</v>
+        <v>18583800</v>
       </c>
       <c r="K54" s="3">
         <v>14418300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1952500</v>
+        <v>2045100</v>
       </c>
       <c r="E57" s="3">
-        <v>1403900</v>
+        <v>1470500</v>
       </c>
       <c r="F57" s="3">
-        <v>895300</v>
+        <v>937800</v>
       </c>
       <c r="G57" s="3">
-        <v>638700</v>
+        <v>669000</v>
       </c>
       <c r="H57" s="3">
-        <v>614000</v>
+        <v>643100</v>
       </c>
       <c r="I57" s="3">
-        <v>401000</v>
+        <v>420100</v>
       </c>
       <c r="J57" s="3">
-        <v>1570000</v>
+        <v>1644500</v>
       </c>
       <c r="K57" s="3">
         <v>384900</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2914700</v>
+        <v>3053000</v>
       </c>
       <c r="E58" s="3">
-        <v>4030300</v>
+        <v>4221500</v>
       </c>
       <c r="F58" s="3">
-        <v>4464700</v>
+        <v>4676500</v>
       </c>
       <c r="G58" s="3">
-        <v>3471500</v>
+        <v>3636200</v>
       </c>
       <c r="H58" s="3">
-        <v>1578900</v>
+        <v>1653800</v>
       </c>
       <c r="I58" s="3">
-        <v>1637500</v>
+        <v>1715200</v>
       </c>
       <c r="J58" s="3">
-        <v>2298200</v>
+        <v>2407300</v>
       </c>
       <c r="K58" s="3">
         <v>2907600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3788600</v>
+        <v>3968300</v>
       </c>
       <c r="E59" s="3">
-        <v>3820600</v>
+        <v>4001900</v>
       </c>
       <c r="F59" s="3">
-        <v>2102500</v>
+        <v>2202200</v>
       </c>
       <c r="G59" s="3">
-        <v>1997700</v>
+        <v>2092500</v>
       </c>
       <c r="H59" s="3">
-        <v>1776200</v>
+        <v>1860500</v>
       </c>
       <c r="I59" s="3">
-        <v>2146400</v>
+        <v>2248300</v>
       </c>
       <c r="J59" s="3">
-        <v>3144200</v>
+        <v>3293400</v>
       </c>
       <c r="K59" s="3">
         <v>1860500</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8655800</v>
+        <v>9066400</v>
       </c>
       <c r="E60" s="3">
-        <v>9254800</v>
+        <v>9693900</v>
       </c>
       <c r="F60" s="3">
-        <v>7462500</v>
+        <v>7816500</v>
       </c>
       <c r="G60" s="3">
-        <v>6107800</v>
+        <v>6397600</v>
       </c>
       <c r="H60" s="3">
-        <v>3969100</v>
+        <v>4157400</v>
       </c>
       <c r="I60" s="3">
-        <v>4184900</v>
+        <v>4383500</v>
       </c>
       <c r="J60" s="3">
-        <v>4156900</v>
+        <v>4354100</v>
       </c>
       <c r="K60" s="3">
         <v>5153000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7059400</v>
+        <v>7394300</v>
       </c>
       <c r="E61" s="3">
-        <v>6188200</v>
+        <v>6481700</v>
       </c>
       <c r="F61" s="3">
-        <v>5059200</v>
+        <v>5299200</v>
       </c>
       <c r="G61" s="3">
-        <v>6710700</v>
+        <v>7029100</v>
       </c>
       <c r="H61" s="3">
-        <v>7343800</v>
+        <v>7692200</v>
       </c>
       <c r="I61" s="3">
-        <v>6404600</v>
+        <v>6708500</v>
       </c>
       <c r="J61" s="3">
-        <v>4833800</v>
+        <v>5063100</v>
       </c>
       <c r="K61" s="3">
         <v>2206800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1561200</v>
+        <v>1635300</v>
       </c>
       <c r="E62" s="3">
-        <v>1638500</v>
+        <v>1716300</v>
       </c>
       <c r="F62" s="3">
-        <v>1137500</v>
+        <v>1191400</v>
       </c>
       <c r="G62" s="3">
-        <v>1220800</v>
+        <v>1278800</v>
       </c>
       <c r="H62" s="3">
-        <v>1336600</v>
+        <v>1400000</v>
       </c>
       <c r="I62" s="3">
-        <v>1533100</v>
+        <v>1605800</v>
       </c>
       <c r="J62" s="3">
-        <v>1953200</v>
+        <v>2045900</v>
       </c>
       <c r="K62" s="3">
         <v>628600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20360200</v>
+        <v>21326100</v>
       </c>
       <c r="E66" s="3">
-        <v>19930200</v>
+        <v>20875700</v>
       </c>
       <c r="F66" s="3">
-        <v>15053300</v>
+        <v>15767500</v>
       </c>
       <c r="G66" s="3">
-        <v>14317100</v>
+        <v>14996300</v>
       </c>
       <c r="H66" s="3">
-        <v>13070100</v>
+        <v>13690200</v>
       </c>
       <c r="I66" s="3">
-        <v>12646600</v>
+        <v>13246500</v>
       </c>
       <c r="J66" s="3">
-        <v>11129700</v>
+        <v>11657700</v>
       </c>
       <c r="K66" s="3">
         <v>8090900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7591900</v>
+        <v>7952100</v>
       </c>
       <c r="E72" s="3">
-        <v>6681100</v>
+        <v>6998000</v>
       </c>
       <c r="F72" s="3">
-        <v>5624000</v>
+        <v>5890800</v>
       </c>
       <c r="G72" s="3">
-        <v>5388800</v>
+        <v>5644500</v>
       </c>
       <c r="H72" s="3">
-        <v>5382000</v>
+        <v>5637400</v>
       </c>
       <c r="I72" s="3">
-        <v>5285000</v>
+        <v>5535800</v>
       </c>
       <c r="J72" s="3">
-        <v>6893600</v>
+        <v>7220600</v>
       </c>
       <c r="K72" s="3">
         <v>5216400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9557800</v>
+        <v>10011200</v>
       </c>
       <c r="E76" s="3">
-        <v>8725600</v>
+        <v>9139500</v>
       </c>
       <c r="F76" s="3">
-        <v>6361700</v>
+        <v>6663500</v>
       </c>
       <c r="G76" s="3">
-        <v>6374100</v>
+        <v>6676500</v>
       </c>
       <c r="H76" s="3">
-        <v>6259700</v>
+        <v>6556700</v>
       </c>
       <c r="I76" s="3">
-        <v>5864200</v>
+        <v>6142400</v>
       </c>
       <c r="J76" s="3">
-        <v>6612300</v>
+        <v>6926000</v>
       </c>
       <c r="K76" s="3">
         <v>6327400</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1246400</v>
+        <v>1305600</v>
       </c>
       <c r="E81" s="3">
-        <v>1069300</v>
+        <v>1120000</v>
       </c>
       <c r="F81" s="3">
-        <v>239500</v>
+        <v>250900</v>
       </c>
       <c r="G81" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="H81" s="3">
-        <v>111300</v>
+        <v>116500</v>
       </c>
       <c r="I81" s="3">
-        <v>112900</v>
+        <v>118300</v>
       </c>
       <c r="J81" s="3">
-        <v>880900</v>
+        <v>922700</v>
       </c>
       <c r="K81" s="3">
         <v>1297900</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>918300</v>
+        <v>961800</v>
       </c>
       <c r="E83" s="3">
-        <v>675700</v>
+        <v>707700</v>
       </c>
       <c r="F83" s="3">
-        <v>605200</v>
+        <v>633900</v>
       </c>
       <c r="G83" s="3">
-        <v>648000</v>
+        <v>678800</v>
       </c>
       <c r="H83" s="3">
-        <v>609300</v>
+        <v>638200</v>
       </c>
       <c r="I83" s="3">
-        <v>646300</v>
+        <v>676900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2649500</v>
+        <v>2775200</v>
       </c>
       <c r="E89" s="3">
-        <v>1766100</v>
+        <v>1849900</v>
       </c>
       <c r="F89" s="3">
-        <v>1629600</v>
+        <v>1706900</v>
       </c>
       <c r="G89" s="3">
-        <v>294700</v>
+        <v>308700</v>
       </c>
       <c r="H89" s="3">
-        <v>605900</v>
+        <v>634600</v>
       </c>
       <c r="I89" s="3">
-        <v>-319700</v>
+        <v>-334800</v>
       </c>
       <c r="J89" s="3">
-        <v>944500</v>
+        <v>989300</v>
       </c>
       <c r="K89" s="3">
         <v>2668000</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1463500</v>
+        <v>-1533000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1123000</v>
+        <v>-1176300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1130500</v>
+        <v>-1184200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1787800</v>
+        <v>-1872600</v>
       </c>
       <c r="H91" s="3">
-        <v>-842400</v>
+        <v>-882300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1484500</v>
+        <v>-1554900</v>
       </c>
       <c r="J91" s="3">
-        <v>-904800</v>
+        <v>-947800</v>
       </c>
       <c r="K91" s="3">
         <v>-1279200</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1477300</v>
+        <v>-1547400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4479100</v>
+        <v>-4691600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2172000</v>
+        <v>-2275000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1191400</v>
+        <v>-1247900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1239500</v>
+        <v>-1298300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1961200</v>
+        <v>-2054300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-342100</v>
+        <v>-358400</v>
       </c>
       <c r="E96" s="3">
-        <v>-80000</v>
+        <v>-83700</v>
       </c>
       <c r="F96" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="G96" s="3">
-        <v>-14300</v>
+        <v>-15000</v>
       </c>
       <c r="H96" s="3">
-        <v>-14300</v>
+        <v>-15000</v>
       </c>
       <c r="I96" s="3">
-        <v>-257100</v>
+        <v>-269300</v>
       </c>
       <c r="J96" s="3">
-        <v>-407200</v>
+        <v>-426500</v>
       </c>
       <c r="K96" s="3">
         <v>-430700</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-274700</v>
+        <v>-287700</v>
       </c>
       <c r="E100" s="3">
-        <v>3424500</v>
+        <v>3587000</v>
       </c>
       <c r="F100" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="G100" s="3">
-        <v>1608200</v>
+        <v>1684500</v>
       </c>
       <c r="H100" s="3">
-        <v>1262400</v>
+        <v>1322300</v>
       </c>
       <c r="I100" s="3">
-        <v>1929700</v>
+        <v>2021200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17400</v>
+        <v>18200</v>
       </c>
       <c r="E101" s="3">
-        <v>-36100</v>
+        <v>-37800</v>
       </c>
       <c r="F101" s="3">
-        <v>-8200</v>
+        <v>-8600</v>
       </c>
       <c r="G101" s="3">
-        <v>33900</v>
+        <v>35500</v>
       </c>
       <c r="H101" s="3">
-        <v>-30500</v>
+        <v>-31900</v>
       </c>
       <c r="I101" s="3">
-        <v>90600</v>
+        <v>94900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>914900</v>
+        <v>958300</v>
       </c>
       <c r="E102" s="3">
-        <v>675400</v>
+        <v>707400</v>
       </c>
       <c r="F102" s="3">
-        <v>-545000</v>
+        <v>-570800</v>
       </c>
       <c r="G102" s="3">
-        <v>745500</v>
+        <v>780900</v>
       </c>
       <c r="H102" s="3">
-        <v>598200</v>
+        <v>626600</v>
       </c>
       <c r="I102" s="3">
-        <v>-260600</v>
+        <v>-273000</v>
       </c>
       <c r="J102" s="3">
-        <v>664000</v>
+        <v>695500</v>
       </c>
       <c r="K102" s="3">
         <v>203900</v>

--- a/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10260100</v>
+        <v>10304600</v>
       </c>
       <c r="E8" s="3">
-        <v>8012500</v>
+        <v>8047200</v>
       </c>
       <c r="F8" s="3">
-        <v>5061400</v>
+        <v>5083400</v>
       </c>
       <c r="G8" s="3">
-        <v>5537800</v>
+        <v>5561800</v>
       </c>
       <c r="H8" s="3">
-        <v>9183600</v>
+        <v>9223400</v>
       </c>
       <c r="I8" s="3">
-        <v>8579800</v>
+        <v>8617100</v>
       </c>
       <c r="J8" s="3">
-        <v>8845200</v>
+        <v>8883600</v>
       </c>
       <c r="K8" s="3">
         <v>6985000</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6562500</v>
+        <v>6591000</v>
       </c>
       <c r="E9" s="3">
-        <v>5135100</v>
+        <v>5157300</v>
       </c>
       <c r="F9" s="3">
-        <v>3621700</v>
+        <v>3637500</v>
       </c>
       <c r="G9" s="3">
-        <v>4601700</v>
+        <v>4621700</v>
       </c>
       <c r="H9" s="3">
-        <v>8045500</v>
+        <v>8080400</v>
       </c>
       <c r="I9" s="3">
-        <v>6954000</v>
+        <v>6984200</v>
       </c>
       <c r="J9" s="3">
-        <v>12994800</v>
+        <v>13051200</v>
       </c>
       <c r="K9" s="3">
         <v>7846200</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3697500</v>
+        <v>3713600</v>
       </c>
       <c r="E10" s="3">
-        <v>2877400</v>
+        <v>2889900</v>
       </c>
       <c r="F10" s="3">
-        <v>1439700</v>
+        <v>1445900</v>
       </c>
       <c r="G10" s="3">
-        <v>936100</v>
+        <v>940100</v>
       </c>
       <c r="H10" s="3">
-        <v>1138100</v>
+        <v>1143000</v>
       </c>
       <c r="I10" s="3">
-        <v>1625800</v>
+        <v>1632900</v>
       </c>
       <c r="J10" s="3">
-        <v>-4149600</v>
+        <v>-4167600</v>
       </c>
       <c r="K10" s="3">
         <v>-861100</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="G12" s="3">
         <v>5800</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="E14" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="F14" s="3">
-        <v>101600</v>
+        <v>102100</v>
       </c>
       <c r="G14" s="3">
-        <v>49700</v>
+        <v>49900</v>
       </c>
       <c r="H14" s="3">
-        <v>-111300</v>
+        <v>-111700</v>
       </c>
       <c r="I14" s="3">
-        <v>312200</v>
+        <v>313500</v>
       </c>
       <c r="J14" s="3">
-        <v>98000</v>
+        <v>98400</v>
       </c>
       <c r="K14" s="3">
         <v>41900</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>110600</v>
+        <v>111100</v>
       </c>
       <c r="E15" s="3">
-        <v>76600</v>
+        <v>76900</v>
       </c>
       <c r="F15" s="3">
-        <v>59100</v>
+        <v>59300</v>
       </c>
       <c r="G15" s="3">
-        <v>50100</v>
+        <v>50400</v>
       </c>
       <c r="H15" s="3">
-        <v>60300</v>
+        <v>60500</v>
       </c>
       <c r="I15" s="3">
-        <v>63500</v>
+        <v>63700</v>
       </c>
       <c r="J15" s="3">
-        <v>52200</v>
+        <v>52400</v>
       </c>
       <c r="K15" s="3">
         <v>34200</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8125000</v>
+        <v>8160200</v>
       </c>
       <c r="E17" s="3">
-        <v>6330200</v>
+        <v>6357700</v>
       </c>
       <c r="F17" s="3">
-        <v>4806600</v>
+        <v>4827400</v>
       </c>
       <c r="G17" s="3">
-        <v>5468300</v>
+        <v>5492000</v>
       </c>
       <c r="H17" s="3">
-        <v>8857600</v>
+        <v>8896100</v>
       </c>
       <c r="I17" s="3">
-        <v>8533100</v>
+        <v>8570200</v>
       </c>
       <c r="J17" s="3">
-        <v>8139600</v>
+        <v>8174900</v>
       </c>
       <c r="K17" s="3">
         <v>5210900</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2135100</v>
+        <v>2144400</v>
       </c>
       <c r="E18" s="3">
-        <v>1682200</v>
+        <v>1689500</v>
       </c>
       <c r="F18" s="3">
-        <v>254800</v>
+        <v>255900</v>
       </c>
       <c r="G18" s="3">
-        <v>69500</v>
+        <v>69800</v>
       </c>
       <c r="H18" s="3">
-        <v>326000</v>
+        <v>327400</v>
       </c>
       <c r="I18" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="J18" s="3">
-        <v>705600</v>
+        <v>708600</v>
       </c>
       <c r="K18" s="3">
         <v>1774100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>837900</v>
+        <v>841500</v>
       </c>
       <c r="E20" s="3">
-        <v>528600</v>
+        <v>530900</v>
       </c>
       <c r="F20" s="3">
-        <v>535600</v>
+        <v>537900</v>
       </c>
       <c r="G20" s="3">
-        <v>403100</v>
+        <v>404800</v>
       </c>
       <c r="H20" s="3">
-        <v>249600</v>
+        <v>250700</v>
       </c>
       <c r="I20" s="3">
-        <v>133600</v>
+        <v>134200</v>
       </c>
       <c r="J20" s="3">
-        <v>658600</v>
+        <v>661500</v>
       </c>
       <c r="K20" s="3">
         <v>169900</v>
@@ -1053,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3934700</v>
+        <v>3955200</v>
       </c>
       <c r="E21" s="3">
-        <v>2918500</v>
+        <v>2933700</v>
       </c>
       <c r="F21" s="3">
-        <v>1424300</v>
+        <v>1432700</v>
       </c>
       <c r="G21" s="3">
-        <v>1151300</v>
+        <v>1158700</v>
       </c>
       <c r="H21" s="3">
-        <v>1213700</v>
+        <v>1221200</v>
       </c>
       <c r="I21" s="3">
-        <v>857200</v>
+        <v>863300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>549500</v>
+        <v>551900</v>
       </c>
       <c r="E22" s="3">
-        <v>495200</v>
+        <v>497400</v>
       </c>
       <c r="F22" s="3">
-        <v>380500</v>
+        <v>382100</v>
       </c>
       <c r="G22" s="3">
-        <v>377900</v>
+        <v>379600</v>
       </c>
       <c r="H22" s="3">
-        <v>332200</v>
+        <v>333600</v>
       </c>
       <c r="I22" s="3">
-        <v>268600</v>
+        <v>269800</v>
       </c>
       <c r="J22" s="3">
-        <v>440700</v>
+        <v>442700</v>
       </c>
       <c r="K22" s="3">
         <v>124600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2423400</v>
+        <v>2434000</v>
       </c>
       <c r="E23" s="3">
-        <v>1715600</v>
+        <v>1723100</v>
       </c>
       <c r="F23" s="3">
-        <v>410000</v>
+        <v>411800</v>
       </c>
       <c r="G23" s="3">
-        <v>94700</v>
+        <v>95100</v>
       </c>
       <c r="H23" s="3">
-        <v>243400</v>
+        <v>244400</v>
       </c>
       <c r="I23" s="3">
-        <v>-88300</v>
+        <v>-88700</v>
       </c>
       <c r="J23" s="3">
-        <v>923400</v>
+        <v>927400</v>
       </c>
       <c r="K23" s="3">
         <v>1819400</v>
@@ -1143,22 +1143,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>701000</v>
+        <v>704100</v>
       </c>
       <c r="E24" s="3">
-        <v>413000</v>
+        <v>414700</v>
       </c>
       <c r="F24" s="3">
-        <v>124300</v>
+        <v>124800</v>
       </c>
       <c r="G24" s="3">
-        <v>74500</v>
+        <v>74800</v>
       </c>
       <c r="H24" s="3">
-        <v>169300</v>
+        <v>170000</v>
       </c>
       <c r="I24" s="3">
-        <v>-60100</v>
+        <v>-60300</v>
       </c>
       <c r="J24" s="3">
         <v>5500</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1722400</v>
+        <v>1729900</v>
       </c>
       <c r="E26" s="3">
-        <v>1302700</v>
+        <v>1308300</v>
       </c>
       <c r="F26" s="3">
-        <v>285700</v>
+        <v>287000</v>
       </c>
       <c r="G26" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="H26" s="3">
-        <v>74100</v>
+        <v>74400</v>
       </c>
       <c r="I26" s="3">
-        <v>-28200</v>
+        <v>-28300</v>
       </c>
       <c r="J26" s="3">
-        <v>917900</v>
+        <v>921900</v>
       </c>
       <c r="K26" s="3">
         <v>1304900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1305600</v>
+        <v>1311200</v>
       </c>
       <c r="E27" s="3">
-        <v>1120000</v>
+        <v>1124900</v>
       </c>
       <c r="F27" s="3">
-        <v>250900</v>
+        <v>252000</v>
       </c>
       <c r="G27" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="H27" s="3">
-        <v>116500</v>
+        <v>117100</v>
       </c>
       <c r="I27" s="3">
-        <v>118300</v>
+        <v>118800</v>
       </c>
       <c r="J27" s="3">
-        <v>922700</v>
+        <v>926700</v>
       </c>
       <c r="K27" s="3">
         <v>1297900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-837900</v>
+        <v>-841500</v>
       </c>
       <c r="E32" s="3">
-        <v>-528600</v>
+        <v>-530900</v>
       </c>
       <c r="F32" s="3">
-        <v>-535600</v>
+        <v>-537900</v>
       </c>
       <c r="G32" s="3">
-        <v>-403100</v>
+        <v>-404800</v>
       </c>
       <c r="H32" s="3">
-        <v>-249600</v>
+        <v>-250700</v>
       </c>
       <c r="I32" s="3">
-        <v>-133600</v>
+        <v>-134200</v>
       </c>
       <c r="J32" s="3">
-        <v>-658600</v>
+        <v>-661500</v>
       </c>
       <c r="K32" s="3">
         <v>-169900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1305600</v>
+        <v>1311200</v>
       </c>
       <c r="E33" s="3">
-        <v>1120000</v>
+        <v>1124900</v>
       </c>
       <c r="F33" s="3">
-        <v>250900</v>
+        <v>252000</v>
       </c>
       <c r="G33" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="H33" s="3">
-        <v>116500</v>
+        <v>117100</v>
       </c>
       <c r="I33" s="3">
-        <v>118300</v>
+        <v>118800</v>
       </c>
       <c r="J33" s="3">
-        <v>922700</v>
+        <v>926700</v>
       </c>
       <c r="K33" s="3">
         <v>1297900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1305600</v>
+        <v>1311200</v>
       </c>
       <c r="E35" s="3">
-        <v>1120000</v>
+        <v>1124900</v>
       </c>
       <c r="F35" s="3">
-        <v>250900</v>
+        <v>252000</v>
       </c>
       <c r="G35" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="H35" s="3">
-        <v>116500</v>
+        <v>117100</v>
       </c>
       <c r="I35" s="3">
-        <v>118300</v>
+        <v>118800</v>
       </c>
       <c r="J35" s="3">
-        <v>922700</v>
+        <v>926700</v>
       </c>
       <c r="K35" s="3">
         <v>1297900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4164000</v>
+        <v>4182000</v>
       </c>
       <c r="E41" s="3">
-        <v>3205700</v>
+        <v>3219600</v>
       </c>
       <c r="F41" s="3">
-        <v>2498200</v>
+        <v>2509100</v>
       </c>
       <c r="G41" s="3">
-        <v>3069000</v>
+        <v>3082400</v>
       </c>
       <c r="H41" s="3">
-        <v>2288200</v>
+        <v>2298100</v>
       </c>
       <c r="I41" s="3">
-        <v>1661600</v>
+        <v>1668800</v>
       </c>
       <c r="J41" s="3">
-        <v>1934600</v>
+        <v>1943000</v>
       </c>
       <c r="K41" s="3">
         <v>1208800</v>
@@ -1614,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="3">
-        <v>484800</v>
+        <v>486900</v>
       </c>
       <c r="K42" s="3">
         <v>1416300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2634800</v>
+        <v>2646200</v>
       </c>
       <c r="E43" s="3">
-        <v>3200800</v>
+        <v>3214700</v>
       </c>
       <c r="F43" s="3">
-        <v>1805500</v>
+        <v>1813300</v>
       </c>
       <c r="G43" s="3">
-        <v>1209100</v>
+        <v>1214300</v>
       </c>
       <c r="H43" s="3">
-        <v>1354100</v>
+        <v>1360000</v>
       </c>
       <c r="I43" s="3">
-        <v>1394200</v>
+        <v>1400200</v>
       </c>
       <c r="J43" s="3">
-        <v>2467200</v>
+        <v>2477900</v>
       </c>
       <c r="K43" s="3">
         <v>1163100</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1108300</v>
+        <v>1113100</v>
       </c>
       <c r="E44" s="3">
-        <v>913900</v>
+        <v>917800</v>
       </c>
       <c r="F44" s="3">
-        <v>769600</v>
+        <v>772900</v>
       </c>
       <c r="G44" s="3">
-        <v>693600</v>
+        <v>696600</v>
       </c>
       <c r="H44" s="3">
-        <v>529300</v>
+        <v>531600</v>
       </c>
       <c r="I44" s="3">
-        <v>241800</v>
+        <v>242800</v>
       </c>
       <c r="J44" s="3">
-        <v>476300</v>
+        <v>478400</v>
       </c>
       <c r="K44" s="3">
         <v>206500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1954900</v>
+        <v>1963400</v>
       </c>
       <c r="E45" s="3">
-        <v>2594700</v>
+        <v>2605900</v>
       </c>
       <c r="F45" s="3">
-        <v>1221600</v>
+        <v>1226900</v>
       </c>
       <c r="G45" s="3">
-        <v>2453400</v>
+        <v>2464100</v>
       </c>
       <c r="H45" s="3">
-        <v>1622100</v>
+        <v>1629100</v>
       </c>
       <c r="I45" s="3">
-        <v>1498000</v>
+        <v>1504500</v>
       </c>
       <c r="J45" s="3">
-        <v>1760200</v>
+        <v>1767800</v>
       </c>
       <c r="K45" s="3">
         <v>521600</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9862000</v>
+        <v>9904800</v>
       </c>
       <c r="E46" s="3">
-        <v>9925600</v>
+        <v>9968700</v>
       </c>
       <c r="F46" s="3">
-        <v>6314700</v>
+        <v>6342100</v>
       </c>
       <c r="G46" s="3">
-        <v>7425100</v>
+        <v>7457400</v>
       </c>
       <c r="H46" s="3">
-        <v>5793700</v>
+        <v>5818800</v>
       </c>
       <c r="I46" s="3">
-        <v>4795500</v>
+        <v>4816300</v>
       </c>
       <c r="J46" s="3">
-        <v>4538300</v>
+        <v>4558000</v>
       </c>
       <c r="K46" s="3">
         <v>4516300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4018300</v>
+        <v>4035700</v>
       </c>
       <c r="E47" s="3">
-        <v>2896600</v>
+        <v>2909200</v>
       </c>
       <c r="F47" s="3">
-        <v>2056700</v>
+        <v>2065600</v>
       </c>
       <c r="G47" s="3">
-        <v>837800</v>
+        <v>841400</v>
       </c>
       <c r="H47" s="3">
-        <v>731200</v>
+        <v>734400</v>
       </c>
       <c r="I47" s="3">
-        <v>989100</v>
+        <v>993400</v>
       </c>
       <c r="J47" s="3">
-        <v>1735100</v>
+        <v>1742700</v>
       </c>
       <c r="K47" s="3">
         <v>732300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8734300</v>
+        <v>8772200</v>
       </c>
       <c r="E48" s="3">
-        <v>7863000</v>
+        <v>7897100</v>
       </c>
       <c r="F48" s="3">
-        <v>6381900</v>
+        <v>6409600</v>
       </c>
       <c r="G48" s="3">
-        <v>6939100</v>
+        <v>6969200</v>
       </c>
       <c r="H48" s="3">
-        <v>6719800</v>
+        <v>6749000</v>
       </c>
       <c r="I48" s="3">
-        <v>6373300</v>
+        <v>6400900</v>
       </c>
       <c r="J48" s="3">
-        <v>5674700</v>
+        <v>5699300</v>
       </c>
       <c r="K48" s="3">
         <v>4641300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7533000</v>
+        <v>7565700</v>
       </c>
       <c r="E49" s="3">
-        <v>7892900</v>
+        <v>7927200</v>
       </c>
       <c r="F49" s="3">
-        <v>6427600</v>
+        <v>6455500</v>
       </c>
       <c r="G49" s="3">
-        <v>5254100</v>
+        <v>5276900</v>
       </c>
       <c r="H49" s="3">
-        <v>6011800</v>
+        <v>6037900</v>
       </c>
       <c r="I49" s="3">
-        <v>6193900</v>
+        <v>6220700</v>
       </c>
       <c r="J49" s="3">
-        <v>10624400</v>
+        <v>10670500</v>
       </c>
       <c r="K49" s="3">
         <v>4166100</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1189600</v>
+        <v>1194800</v>
       </c>
       <c r="E52" s="3">
-        <v>1437000</v>
+        <v>1443200</v>
       </c>
       <c r="F52" s="3">
-        <v>1250000</v>
+        <v>1255500</v>
       </c>
       <c r="G52" s="3">
-        <v>1216700</v>
+        <v>1221900</v>
       </c>
       <c r="H52" s="3">
-        <v>990300</v>
+        <v>994600</v>
       </c>
       <c r="I52" s="3">
-        <v>1037200</v>
+        <v>1041700</v>
       </c>
       <c r="J52" s="3">
-        <v>1146300</v>
+        <v>1151300</v>
       </c>
       <c r="K52" s="3">
         <v>362300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31337300</v>
+        <v>31473200</v>
       </c>
       <c r="E54" s="3">
-        <v>30015200</v>
+        <v>30145400</v>
       </c>
       <c r="F54" s="3">
-        <v>22430900</v>
+        <v>22528200</v>
       </c>
       <c r="G54" s="3">
-        <v>21672800</v>
+        <v>21766900</v>
       </c>
       <c r="H54" s="3">
-        <v>20246900</v>
+        <v>20334700</v>
       </c>
       <c r="I54" s="3">
-        <v>19388900</v>
+        <v>19473100</v>
       </c>
       <c r="J54" s="3">
-        <v>18583800</v>
+        <v>18664400</v>
       </c>
       <c r="K54" s="3">
         <v>14418300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2045100</v>
+        <v>2054000</v>
       </c>
       <c r="E57" s="3">
-        <v>1470500</v>
+        <v>1476800</v>
       </c>
       <c r="F57" s="3">
-        <v>937800</v>
+        <v>941900</v>
       </c>
       <c r="G57" s="3">
-        <v>669000</v>
+        <v>671900</v>
       </c>
       <c r="H57" s="3">
-        <v>643100</v>
+        <v>645900</v>
       </c>
       <c r="I57" s="3">
-        <v>420100</v>
+        <v>421900</v>
       </c>
       <c r="J57" s="3">
-        <v>1644500</v>
+        <v>1651600</v>
       </c>
       <c r="K57" s="3">
         <v>384900</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3053000</v>
+        <v>3066200</v>
       </c>
       <c r="E58" s="3">
-        <v>4221500</v>
+        <v>4239800</v>
       </c>
       <c r="F58" s="3">
-        <v>4676500</v>
+        <v>4696800</v>
       </c>
       <c r="G58" s="3">
-        <v>3636200</v>
+        <v>3651900</v>
       </c>
       <c r="H58" s="3">
-        <v>1653800</v>
+        <v>1661000</v>
       </c>
       <c r="I58" s="3">
-        <v>1715200</v>
+        <v>1722600</v>
       </c>
       <c r="J58" s="3">
-        <v>2407300</v>
+        <v>2417700</v>
       </c>
       <c r="K58" s="3">
         <v>2907600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3968300</v>
+        <v>3985500</v>
       </c>
       <c r="E59" s="3">
-        <v>4001900</v>
+        <v>4019300</v>
       </c>
       <c r="F59" s="3">
-        <v>2202200</v>
+        <v>2211800</v>
       </c>
       <c r="G59" s="3">
-        <v>2092500</v>
+        <v>2101600</v>
       </c>
       <c r="H59" s="3">
-        <v>1860500</v>
+        <v>1868600</v>
       </c>
       <c r="I59" s="3">
-        <v>2248300</v>
+        <v>2258000</v>
       </c>
       <c r="J59" s="3">
-        <v>3293400</v>
+        <v>3307600</v>
       </c>
       <c r="K59" s="3">
         <v>1860500</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9066400</v>
+        <v>9105800</v>
       </c>
       <c r="E60" s="3">
-        <v>9693900</v>
+        <v>9735900</v>
       </c>
       <c r="F60" s="3">
-        <v>7816500</v>
+        <v>7850400</v>
       </c>
       <c r="G60" s="3">
-        <v>6397600</v>
+        <v>6425400</v>
       </c>
       <c r="H60" s="3">
-        <v>4157400</v>
+        <v>4175500</v>
       </c>
       <c r="I60" s="3">
-        <v>4383500</v>
+        <v>4402500</v>
       </c>
       <c r="J60" s="3">
-        <v>4354100</v>
+        <v>4373000</v>
       </c>
       <c r="K60" s="3">
         <v>5153000</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7394300</v>
+        <v>7426400</v>
       </c>
       <c r="E61" s="3">
-        <v>6481700</v>
+        <v>6509900</v>
       </c>
       <c r="F61" s="3">
-        <v>5299200</v>
+        <v>5322200</v>
       </c>
       <c r="G61" s="3">
-        <v>7029100</v>
+        <v>7059600</v>
       </c>
       <c r="H61" s="3">
-        <v>7692200</v>
+        <v>7725500</v>
       </c>
       <c r="I61" s="3">
-        <v>6708500</v>
+        <v>6737600</v>
       </c>
       <c r="J61" s="3">
-        <v>5063100</v>
+        <v>5085100</v>
       </c>
       <c r="K61" s="3">
         <v>2206800</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1635300</v>
+        <v>1642400</v>
       </c>
       <c r="E62" s="3">
-        <v>1716300</v>
+        <v>1723700</v>
       </c>
       <c r="F62" s="3">
-        <v>1191400</v>
+        <v>1196600</v>
       </c>
       <c r="G62" s="3">
-        <v>1278800</v>
+        <v>1284300</v>
       </c>
       <c r="H62" s="3">
-        <v>1400000</v>
+        <v>1406100</v>
       </c>
       <c r="I62" s="3">
-        <v>1605800</v>
+        <v>1612800</v>
       </c>
       <c r="J62" s="3">
-        <v>2045900</v>
+        <v>2054700</v>
       </c>
       <c r="K62" s="3">
         <v>628600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21326100</v>
+        <v>21418600</v>
       </c>
       <c r="E66" s="3">
-        <v>20875700</v>
+        <v>20966300</v>
       </c>
       <c r="F66" s="3">
-        <v>15767500</v>
+        <v>15835900</v>
       </c>
       <c r="G66" s="3">
-        <v>14996300</v>
+        <v>15061400</v>
       </c>
       <c r="H66" s="3">
-        <v>13690200</v>
+        <v>13749600</v>
       </c>
       <c r="I66" s="3">
-        <v>13246500</v>
+        <v>13304000</v>
       </c>
       <c r="J66" s="3">
-        <v>11657700</v>
+        <v>11708300</v>
       </c>
       <c r="K66" s="3">
         <v>8090900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7952100</v>
+        <v>7986600</v>
       </c>
       <c r="E72" s="3">
-        <v>6998000</v>
+        <v>7028400</v>
       </c>
       <c r="F72" s="3">
-        <v>5890800</v>
+        <v>5916400</v>
       </c>
       <c r="G72" s="3">
-        <v>5644500</v>
+        <v>5668900</v>
       </c>
       <c r="H72" s="3">
-        <v>5637400</v>
+        <v>5661800</v>
       </c>
       <c r="I72" s="3">
-        <v>5535800</v>
+        <v>5559800</v>
       </c>
       <c r="J72" s="3">
-        <v>7220600</v>
+        <v>7252000</v>
       </c>
       <c r="K72" s="3">
         <v>5216400</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10011200</v>
+        <v>10054600</v>
       </c>
       <c r="E76" s="3">
-        <v>9139500</v>
+        <v>9179200</v>
       </c>
       <c r="F76" s="3">
-        <v>6663500</v>
+        <v>6692400</v>
       </c>
       <c r="G76" s="3">
-        <v>6676500</v>
+        <v>6705400</v>
       </c>
       <c r="H76" s="3">
-        <v>6556700</v>
+        <v>6585200</v>
       </c>
       <c r="I76" s="3">
-        <v>6142400</v>
+        <v>6169100</v>
       </c>
       <c r="J76" s="3">
-        <v>6926000</v>
+        <v>6956100</v>
       </c>
       <c r="K76" s="3">
         <v>6327400</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1305600</v>
+        <v>1311200</v>
       </c>
       <c r="E81" s="3">
-        <v>1120000</v>
+        <v>1124900</v>
       </c>
       <c r="F81" s="3">
-        <v>250900</v>
+        <v>252000</v>
       </c>
       <c r="G81" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="H81" s="3">
-        <v>116500</v>
+        <v>117100</v>
       </c>
       <c r="I81" s="3">
-        <v>118300</v>
+        <v>118800</v>
       </c>
       <c r="J81" s="3">
-        <v>922700</v>
+        <v>926700</v>
       </c>
       <c r="K81" s="3">
         <v>1297900</v>
@@ -2707,22 +2707,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>961800</v>
+        <v>966000</v>
       </c>
       <c r="E83" s="3">
-        <v>707700</v>
+        <v>710800</v>
       </c>
       <c r="F83" s="3">
-        <v>633900</v>
+        <v>636600</v>
       </c>
       <c r="G83" s="3">
-        <v>678800</v>
+        <v>681700</v>
       </c>
       <c r="H83" s="3">
-        <v>638200</v>
+        <v>640900</v>
       </c>
       <c r="I83" s="3">
-        <v>676900</v>
+        <v>679900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2775200</v>
+        <v>2787200</v>
       </c>
       <c r="E89" s="3">
-        <v>1849900</v>
+        <v>1857900</v>
       </c>
       <c r="F89" s="3">
-        <v>1706900</v>
+        <v>1714300</v>
       </c>
       <c r="G89" s="3">
-        <v>308700</v>
+        <v>310000</v>
       </c>
       <c r="H89" s="3">
-        <v>634600</v>
+        <v>637400</v>
       </c>
       <c r="I89" s="3">
-        <v>-334800</v>
+        <v>-336300</v>
       </c>
       <c r="J89" s="3">
-        <v>989300</v>
+        <v>993600</v>
       </c>
       <c r="K89" s="3">
         <v>2668000</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1533000</v>
+        <v>-1539600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1176300</v>
+        <v>-1181400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1184200</v>
+        <v>-1189300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1872600</v>
+        <v>-1880700</v>
       </c>
       <c r="H91" s="3">
-        <v>-882300</v>
+        <v>-886200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1554900</v>
+        <v>-1561600</v>
       </c>
       <c r="J91" s="3">
-        <v>-947800</v>
+        <v>-951900</v>
       </c>
       <c r="K91" s="3">
         <v>-1279200</v>
@@ -3021,22 +3021,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1547400</v>
+        <v>-1554100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4691600</v>
+        <v>-4711900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2275000</v>
+        <v>-2284900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1247900</v>
+        <v>-1253300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1298300</v>
+        <v>-1303900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2054300</v>
+        <v>-2063200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3065,10 +3065,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-358400</v>
+        <v>-359900</v>
       </c>
       <c r="E96" s="3">
-        <v>-83700</v>
+        <v>-84100</v>
       </c>
       <c r="F96" s="3">
         <v>-7500</v>
@@ -3080,10 +3080,10 @@
         <v>-15000</v>
       </c>
       <c r="I96" s="3">
-        <v>-269300</v>
+        <v>-270500</v>
       </c>
       <c r="J96" s="3">
-        <v>-426500</v>
+        <v>-428300</v>
       </c>
       <c r="K96" s="3">
         <v>-430700</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-287700</v>
+        <v>-288900</v>
       </c>
       <c r="E100" s="3">
-        <v>3587000</v>
+        <v>3602500</v>
       </c>
       <c r="F100" s="3">
         <v>5900</v>
       </c>
       <c r="G100" s="3">
-        <v>1684500</v>
+        <v>1691900</v>
       </c>
       <c r="H100" s="3">
-        <v>1322300</v>
+        <v>1328000</v>
       </c>
       <c r="I100" s="3">
-        <v>2021200</v>
+        <v>2030000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E101" s="3">
-        <v>-37800</v>
+        <v>-38000</v>
       </c>
       <c r="F101" s="3">
         <v>-8600</v>
       </c>
       <c r="G101" s="3">
-        <v>35500</v>
+        <v>35700</v>
       </c>
       <c r="H101" s="3">
-        <v>-31900</v>
+        <v>-32100</v>
       </c>
       <c r="I101" s="3">
-        <v>94900</v>
+        <v>95300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>958300</v>
+        <v>962500</v>
       </c>
       <c r="E102" s="3">
-        <v>707400</v>
+        <v>710500</v>
       </c>
       <c r="F102" s="3">
-        <v>-570800</v>
+        <v>-573300</v>
       </c>
       <c r="G102" s="3">
-        <v>780900</v>
+        <v>784200</v>
       </c>
       <c r="H102" s="3">
-        <v>626600</v>
+        <v>629300</v>
       </c>
       <c r="I102" s="3">
-        <v>-273000</v>
+        <v>-274200</v>
       </c>
       <c r="J102" s="3">
-        <v>695500</v>
+        <v>698500</v>
       </c>
       <c r="K102" s="3">
         <v>203900</v>

--- a/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>YZCAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,189 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10304600</v>
+        <v>21301000</v>
       </c>
       <c r="E8" s="3">
-        <v>8047200</v>
+        <v>14965100</v>
       </c>
       <c r="F8" s="3">
-        <v>5083400</v>
+        <v>9523800</v>
       </c>
       <c r="G8" s="3">
+        <v>9342100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>9292900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7257200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4584300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5561800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>9223400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>8617100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>8883600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>6985000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6591000</v>
+        <v>11168700</v>
       </c>
       <c r="E9" s="3">
-        <v>5157300</v>
+        <v>9468000</v>
       </c>
       <c r="F9" s="3">
-        <v>3637500</v>
+        <v>7588600</v>
       </c>
       <c r="G9" s="3">
+        <v>6448200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5944900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4651400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3281600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4621700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>8080400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>6984200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>13051200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>7846200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3713600</v>
+        <v>10132300</v>
       </c>
       <c r="E10" s="3">
-        <v>2889900</v>
+        <v>5497100</v>
       </c>
       <c r="F10" s="3">
-        <v>1445900</v>
+        <v>1935100</v>
       </c>
       <c r="G10" s="3">
+        <v>2893900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3348000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2605800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1302700</v>
+      </c>
+      <c r="K10" s="3">
         <v>940100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1143000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1632900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>-4167600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>-861100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +860,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,27 +875,39 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
-        <v>11900</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>17700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +935,105 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-15100</v>
+        <v>293200</v>
       </c>
       <c r="E14" s="3">
-        <v>13700</v>
+        <v>154300</v>
       </c>
       <c r="F14" s="3">
-        <v>102100</v>
+        <v>379200</v>
       </c>
       <c r="G14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K14" s="3">
         <v>49900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>-111700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>313500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>98400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>41900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>111100</v>
+        <v>114200</v>
       </c>
       <c r="E15" s="3">
-        <v>76900</v>
+        <v>123100</v>
       </c>
       <c r="F15" s="3">
-        <v>59300</v>
+        <v>104100</v>
       </c>
       <c r="G15" s="3">
+        <v>100800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>69400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K15" s="3">
         <v>50400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>60500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>63700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>52400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>34200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +1043,96 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8160200</v>
+        <v>13851400</v>
       </c>
       <c r="E17" s="3">
-        <v>6357700</v>
+        <v>11545400</v>
       </c>
       <c r="F17" s="3">
-        <v>4827400</v>
+        <v>9122400</v>
       </c>
       <c r="G17" s="3">
+        <v>7640000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7359000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5733500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4353500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5492000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>8896100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>8570200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>8174900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>5210900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2144400</v>
+        <v>7449500</v>
       </c>
       <c r="E18" s="3">
-        <v>1689500</v>
+        <v>3419700</v>
       </c>
       <c r="F18" s="3">
-        <v>255900</v>
+        <v>401400</v>
       </c>
       <c r="G18" s="3">
+        <v>1702100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1933800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1523700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K18" s="3">
         <v>69800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>327400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>46900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>708600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>1774100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1145,222 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>841500</v>
+        <v>772000</v>
       </c>
       <c r="E20" s="3">
-        <v>530900</v>
+        <v>659800</v>
       </c>
       <c r="F20" s="3">
-        <v>537900</v>
+        <v>1009400</v>
       </c>
       <c r="G20" s="3">
+        <v>741800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>758900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>478800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>485100</v>
+      </c>
+      <c r="K20" s="3">
         <v>404800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>250700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>134200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>661500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>169900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3955200</v>
+        <v>9791300</v>
       </c>
       <c r="E21" s="3">
-        <v>2933700</v>
+        <v>5612600</v>
       </c>
       <c r="F21" s="3">
-        <v>1432700</v>
+        <v>2586700</v>
       </c>
       <c r="G21" s="3">
+        <v>3247200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3563900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2643500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1290100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1158700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>1221200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>863300</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>2387900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>551900</v>
+        <v>824400</v>
       </c>
       <c r="E22" s="3">
-        <v>497400</v>
+        <v>732900</v>
       </c>
       <c r="F22" s="3">
-        <v>382100</v>
+        <v>395000</v>
       </c>
       <c r="G22" s="3">
+        <v>379100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>497700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>448500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>344600</v>
+      </c>
+      <c r="K22" s="3">
         <v>379600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>333600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>269800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>442700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>124600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2434000</v>
+        <v>7397200</v>
       </c>
       <c r="E23" s="3">
-        <v>1723100</v>
+        <v>3346500</v>
       </c>
       <c r="F23" s="3">
-        <v>411800</v>
+        <v>1015800</v>
       </c>
       <c r="G23" s="3">
+        <v>2064900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2195000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1553900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>371300</v>
+      </c>
+      <c r="K23" s="3">
         <v>95100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>244400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-88700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>927400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>1819400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>704100</v>
+        <v>2011900</v>
       </c>
       <c r="E24" s="3">
-        <v>414700</v>
+        <v>753600</v>
       </c>
       <c r="F24" s="3">
-        <v>124800</v>
+        <v>250100</v>
       </c>
       <c r="G24" s="3">
+        <v>435400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>634900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>374000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>112600</v>
+      </c>
+      <c r="K24" s="3">
         <v>74800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>170000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>-60300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>514500</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1388,105 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1729900</v>
+        <v>5385300</v>
       </c>
       <c r="E26" s="3">
-        <v>1308300</v>
+        <v>2592900</v>
       </c>
       <c r="F26" s="3">
-        <v>287000</v>
+        <v>765700</v>
       </c>
       <c r="G26" s="3">
+        <v>1629500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1179900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>258800</v>
+      </c>
+      <c r="K26" s="3">
         <v>20300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>74400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-28300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>921900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>1304900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1311200</v>
+        <v>4189600</v>
       </c>
       <c r="E27" s="3">
-        <v>1124900</v>
+        <v>2334200</v>
       </c>
       <c r="F27" s="3">
-        <v>252000</v>
+        <v>870500</v>
       </c>
       <c r="G27" s="3">
+        <v>1293600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1182500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K27" s="3">
         <v>25100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>117100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>118800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>926700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>1297900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1514,21 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1556,21 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1598,21 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1640,105 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-841500</v>
+        <v>-772000</v>
       </c>
       <c r="E32" s="3">
-        <v>-530900</v>
+        <v>-659800</v>
       </c>
       <c r="F32" s="3">
-        <v>-537900</v>
+        <v>-1009400</v>
       </c>
       <c r="G32" s="3">
+        <v>-741800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-758900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-478800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-485100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-404800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-250700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-134200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-661500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-169900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1311200</v>
+        <v>4189600</v>
       </c>
       <c r="E33" s="3">
-        <v>1124900</v>
+        <v>2334200</v>
       </c>
       <c r="F33" s="3">
-        <v>252000</v>
+        <v>870500</v>
       </c>
       <c r="G33" s="3">
+        <v>1293600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1182500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K33" s="3">
         <v>25100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>117100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>118800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>926700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>1297900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1766,110 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1311200</v>
+        <v>4189600</v>
       </c>
       <c r="E35" s="3">
-        <v>1124900</v>
+        <v>2334200</v>
       </c>
       <c r="F35" s="3">
-        <v>252000</v>
+        <v>870500</v>
       </c>
       <c r="G35" s="3">
+        <v>1293600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1182500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K35" s="3">
         <v>25100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>117100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>118800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>926700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>1297900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1882,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1900,390 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4182000</v>
+        <v>5321700</v>
       </c>
       <c r="E41" s="3">
-        <v>3219600</v>
+        <v>5517400</v>
       </c>
       <c r="F41" s="3">
-        <v>2509100</v>
+        <v>2358300</v>
       </c>
       <c r="G41" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3771400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2903500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2262700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3082400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>2298100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>1668800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>1943000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1208800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>19900</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>486900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>1416300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2646200</v>
+        <v>3401300</v>
       </c>
       <c r="E43" s="3">
-        <v>3214700</v>
+        <v>3567700</v>
       </c>
       <c r="F43" s="3">
-        <v>1813300</v>
+        <v>2438600</v>
       </c>
       <c r="G43" s="3">
+        <v>2576100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2386400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2899100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1635300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1214300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>1360000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>1400200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>2477900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>1163100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1113100</v>
+        <v>1701700</v>
       </c>
       <c r="E44" s="3">
-        <v>917800</v>
+        <v>1749400</v>
       </c>
       <c r="F44" s="3">
-        <v>772900</v>
+        <v>1447900</v>
       </c>
       <c r="G44" s="3">
+        <v>1307700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1003900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>827700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>697000</v>
+      </c>
+      <c r="K44" s="3">
         <v>696600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>531600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>242800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>478400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>206500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1963400</v>
+        <v>1749900</v>
       </c>
       <c r="E45" s="3">
-        <v>2605900</v>
+        <v>1421400</v>
       </c>
       <c r="F45" s="3">
-        <v>1226900</v>
+        <v>1684800</v>
       </c>
       <c r="G45" s="3">
+        <v>1649300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1106400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2464100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>1629100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>1504500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>1767800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>521600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9904800</v>
+        <v>12174600</v>
       </c>
       <c r="E46" s="3">
-        <v>9968700</v>
+        <v>12255800</v>
       </c>
       <c r="F46" s="3">
-        <v>6342100</v>
+        <v>7929600</v>
       </c>
       <c r="G46" s="3">
+        <v>8673100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8932400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8989900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5719400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7457400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>5818800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>4816300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>4558000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>4516300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4035700</v>
+        <v>3791600</v>
       </c>
       <c r="E47" s="3">
-        <v>2909200</v>
+        <v>3899100</v>
       </c>
       <c r="F47" s="3">
-        <v>2065600</v>
+        <v>3496600</v>
       </c>
       <c r="G47" s="3">
+        <v>3815700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3639500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2623600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1862800</v>
+      </c>
+      <c r="K47" s="3">
         <v>841400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>734400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>993400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>1742700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>732300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8772200</v>
+        <v>16031400</v>
       </c>
       <c r="E48" s="3">
-        <v>7897100</v>
+        <v>14422600</v>
       </c>
       <c r="F48" s="3">
-        <v>6409600</v>
+        <v>15648100</v>
       </c>
       <c r="G48" s="3">
+        <v>8939600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7911000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7121800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5780300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6969200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>6749000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>6400900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>5699300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>4641300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7565700</v>
+        <v>10241400</v>
       </c>
       <c r="E49" s="3">
-        <v>7927200</v>
+        <v>10643400</v>
       </c>
       <c r="F49" s="3">
-        <v>6455500</v>
+        <v>10260200</v>
       </c>
       <c r="G49" s="3">
+        <v>7386900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6822900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7148900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5821700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5276900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>6037900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>6220700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>10670500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>4166100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +2311,21 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2353,63 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1194800</v>
+        <v>280500</v>
       </c>
       <c r="E52" s="3">
-        <v>1443200</v>
+        <v>383000</v>
       </c>
       <c r="F52" s="3">
-        <v>1255500</v>
+        <v>280700</v>
       </c>
       <c r="G52" s="3">
+        <v>223300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1077500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1301500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1132200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1221900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>994600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>1041700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>1151300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>362300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2437,63 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31473200</v>
+        <v>42519400</v>
       </c>
       <c r="E54" s="3">
-        <v>30145400</v>
+        <v>41603900</v>
       </c>
       <c r="F54" s="3">
-        <v>22528200</v>
+        <v>37615200</v>
       </c>
       <c r="G54" s="3">
+        <v>29038600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>28383200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>27185700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>20316400</v>
+      </c>
+      <c r="K54" s="3">
         <v>21766900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>20334700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>19473100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>18664400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>14418300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2506,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2524,264 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2054000</v>
+        <v>4102000</v>
       </c>
       <c r="E57" s="3">
-        <v>1476800</v>
+        <v>3539600</v>
       </c>
       <c r="F57" s="3">
-        <v>941900</v>
+        <v>3296200</v>
       </c>
       <c r="G57" s="3">
+        <v>2784600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1852300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1331800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>849400</v>
+      </c>
+      <c r="K57" s="3">
         <v>671900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>645900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>421900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>1651600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>384900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3066200</v>
+        <v>2138400</v>
       </c>
       <c r="E58" s="3">
-        <v>4239800</v>
+        <v>3498200</v>
       </c>
       <c r="F58" s="3">
-        <v>4696800</v>
+        <v>4455500</v>
       </c>
       <c r="G58" s="3">
+        <v>2254700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2765200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3823600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4235600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3651900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>1661000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>1722600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>2417700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>2907600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3985500</v>
+        <v>5291700</v>
       </c>
       <c r="E59" s="3">
-        <v>4019300</v>
+        <v>6227900</v>
       </c>
       <c r="F59" s="3">
-        <v>2211800</v>
+        <v>6381200</v>
       </c>
       <c r="G59" s="3">
+        <v>4192300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3594200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3624700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1994600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2101600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>1868600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>2258000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>3307600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>1860500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9105800</v>
+        <v>11532100</v>
       </c>
       <c r="E60" s="3">
-        <v>9735900</v>
+        <v>13265700</v>
       </c>
       <c r="F60" s="3">
-        <v>7850400</v>
+        <v>14133000</v>
       </c>
       <c r="G60" s="3">
+        <v>9231500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8211700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8780100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7079700</v>
+      </c>
+      <c r="K60" s="3">
         <v>6425400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>4175500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>4402500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>4373000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>5153000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7426400</v>
+        <v>8435500</v>
       </c>
       <c r="E61" s="3">
-        <v>6509900</v>
+        <v>10899900</v>
       </c>
       <c r="F61" s="3">
-        <v>5322200</v>
+        <v>8613300</v>
       </c>
       <c r="G61" s="3">
+        <v>6819600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>6697200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5870700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4799700</v>
+      </c>
+      <c r="K61" s="3">
         <v>7059600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>7725500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>6737600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>5085100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>2206800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1642400</v>
+        <v>3370400</v>
       </c>
       <c r="E62" s="3">
-        <v>1723700</v>
+        <v>2564100</v>
       </c>
       <c r="F62" s="3">
-        <v>1196600</v>
+        <v>2181700</v>
       </c>
       <c r="G62" s="3">
+        <v>1228200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1481100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1554500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1079100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1284300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>1406100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>1612800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>2054700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>628600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2809,21 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2851,21 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2893,63 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21418600</v>
+        <v>28314100</v>
       </c>
       <c r="E66" s="3">
-        <v>20966300</v>
+        <v>31025700</v>
       </c>
       <c r="F66" s="3">
-        <v>15835900</v>
+        <v>28919600</v>
       </c>
       <c r="G66" s="3">
+        <v>19690400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>19315700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>18907800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14281100</v>
+      </c>
+      <c r="K66" s="3">
         <v>15061400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>13749600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>13304000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>11708300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>8090900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2962,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2995,21 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +3037,21 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +3079,21 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +3121,63 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7986600</v>
+        <v>12163200</v>
       </c>
       <c r="E72" s="3">
-        <v>7028400</v>
+        <v>9394100</v>
       </c>
       <c r="F72" s="3">
-        <v>5916400</v>
+        <v>7651400</v>
       </c>
       <c r="G72" s="3">
+        <v>7241100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>7068900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>6204800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5200700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5668900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>5661800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>5559800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>7252000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>5216400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +3205,21 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +3247,21 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +3289,63 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10054600</v>
+        <v>14205300</v>
       </c>
       <c r="E76" s="3">
-        <v>9179200</v>
+        <v>10578200</v>
       </c>
       <c r="F76" s="3">
-        <v>6692400</v>
+        <v>8695600</v>
       </c>
       <c r="G76" s="3">
+        <v>9348200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>9067500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>8278000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6035300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6705400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>6585200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>6169100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>6956100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>6327400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +3373,110 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1311200</v>
+        <v>4189600</v>
       </c>
       <c r="E81" s="3">
-        <v>1124900</v>
+        <v>2334200</v>
       </c>
       <c r="F81" s="3">
-        <v>252000</v>
+        <v>870500</v>
       </c>
       <c r="G81" s="3">
+        <v>1293600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1182500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K81" s="3">
         <v>25100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>117100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>118800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>926700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>1297900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +3489,54 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>966000</v>
+        <v>1569800</v>
       </c>
       <c r="E83" s="3">
-        <v>710800</v>
+        <v>1533200</v>
       </c>
       <c r="F83" s="3">
-        <v>636600</v>
+        <v>1175900</v>
       </c>
       <c r="G83" s="3">
+        <v>803200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>871200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>641000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>574100</v>
+      </c>
+      <c r="K83" s="3">
         <v>681700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>640900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>679900</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>443200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +3564,21 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +3606,21 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3648,21 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3690,21 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3732,63 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2787200</v>
+        <v>8525000</v>
       </c>
       <c r="E89" s="3">
-        <v>1857900</v>
+        <v>4108000</v>
       </c>
       <c r="F89" s="3">
-        <v>1714300</v>
+        <v>958800</v>
       </c>
       <c r="G89" s="3">
+        <v>2261100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2513600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1675500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="K89" s="3">
         <v>310000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>637400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-336300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>993600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>2668000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3801,54 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1539600</v>
+        <v>-2350800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1181400</v>
+        <v>-1589500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1189300</v>
+        <v>-900400</v>
       </c>
       <c r="G91" s="3">
+        <v>-1086600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1388500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1065400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1072500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1880700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-886200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-1561600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-951900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-1279200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3876,21 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3918,63 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1554100</v>
+        <v>-2090200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4711900</v>
+        <v>-3095900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2284900</v>
+        <v>-1414700</v>
       </c>
       <c r="G94" s="3">
+        <v>-1566300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1401500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4249300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2060500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1253300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-1303900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-2063200</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-3800900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3987,54 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-359900</v>
+        <v>-1365100</v>
       </c>
       <c r="E96" s="3">
-        <v>-84100</v>
+        <v>-671800</v>
       </c>
       <c r="F96" s="3">
-        <v>-7500</v>
+        <v>-650700</v>
       </c>
       <c r="G96" s="3">
+        <v>-783800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-324600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-15000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-270500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-428300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-430700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +4062,21 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +4104,21 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +4146,145 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-288900</v>
+        <v>-6764900</v>
       </c>
       <c r="E100" s="3">
-        <v>3602500</v>
+        <v>2200400</v>
       </c>
       <c r="F100" s="3">
-        <v>5900</v>
+        <v>-296700</v>
       </c>
       <c r="G100" s="3">
+        <v>-1368000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-260600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3248800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1691900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>1328000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>2030000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>1401100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18300</v>
+        <v>134400</v>
       </c>
       <c r="E101" s="3">
-        <v>-38000</v>
+        <v>-53500</v>
       </c>
       <c r="F101" s="3">
-        <v>-8600</v>
+        <v>-29100</v>
       </c>
       <c r="G101" s="3">
+        <v>41700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K101" s="3">
         <v>35700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-32100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>95300</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-64300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>962500</v>
+        <v>-195700</v>
       </c>
       <c r="E102" s="3">
-        <v>710500</v>
+        <v>3159100</v>
       </c>
       <c r="F102" s="3">
-        <v>-573300</v>
+        <v>-781700</v>
       </c>
       <c r="G102" s="3">
+        <v>-631400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>868000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>640700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-517000</v>
+      </c>
+      <c r="K102" s="3">
         <v>784200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>629300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-274200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>698500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>203900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/YZCAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21301000</v>
+        <v>21347400</v>
       </c>
       <c r="E8" s="3">
-        <v>14965100</v>
+        <v>14997600</v>
       </c>
       <c r="F8" s="3">
-        <v>9523800</v>
+        <v>9544500</v>
       </c>
       <c r="G8" s="3">
-        <v>9342100</v>
+        <v>9362500</v>
       </c>
       <c r="H8" s="3">
-        <v>9292900</v>
+        <v>9313100</v>
       </c>
       <c r="I8" s="3">
-        <v>7257200</v>
+        <v>7273000</v>
       </c>
       <c r="J8" s="3">
-        <v>4584300</v>
+        <v>4594300</v>
       </c>
       <c r="K8" s="3">
         <v>5561800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11168700</v>
+        <v>11193000</v>
       </c>
       <c r="E9" s="3">
-        <v>9468000</v>
+        <v>9488600</v>
       </c>
       <c r="F9" s="3">
-        <v>7588600</v>
+        <v>7605200</v>
       </c>
       <c r="G9" s="3">
-        <v>6448200</v>
+        <v>6462300</v>
       </c>
       <c r="H9" s="3">
-        <v>5944900</v>
+        <v>5957800</v>
       </c>
       <c r="I9" s="3">
-        <v>4651400</v>
+        <v>4661500</v>
       </c>
       <c r="J9" s="3">
-        <v>3281600</v>
+        <v>3288800</v>
       </c>
       <c r="K9" s="3">
         <v>4621700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10132300</v>
+        <v>10154400</v>
       </c>
       <c r="E10" s="3">
-        <v>5497100</v>
+        <v>5509000</v>
       </c>
       <c r="F10" s="3">
-        <v>1935100</v>
+        <v>1939300</v>
       </c>
       <c r="G10" s="3">
-        <v>2893900</v>
+        <v>2900200</v>
       </c>
       <c r="H10" s="3">
-        <v>3348000</v>
+        <v>3355200</v>
       </c>
       <c r="I10" s="3">
-        <v>2605800</v>
+        <v>2611500</v>
       </c>
       <c r="J10" s="3">
-        <v>1302700</v>
+        <v>1305500</v>
       </c>
       <c r="K10" s="3">
         <v>940100</v>
@@ -954,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>293200</v>
+        <v>293900</v>
       </c>
       <c r="E14" s="3">
-        <v>154300</v>
+        <v>154600</v>
       </c>
       <c r="F14" s="3">
-        <v>379200</v>
+        <v>380000</v>
       </c>
       <c r="G14" s="3">
         <v>6300</v>
@@ -969,10 +969,10 @@
         <v>-13600</v>
       </c>
       <c r="I14" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="J14" s="3">
-        <v>92100</v>
+        <v>92300</v>
       </c>
       <c r="K14" s="3">
         <v>49900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>114200</v>
+        <v>114400</v>
       </c>
       <c r="E15" s="3">
-        <v>123100</v>
+        <v>123400</v>
       </c>
       <c r="F15" s="3">
-        <v>104100</v>
+        <v>104300</v>
       </c>
       <c r="G15" s="3">
-        <v>100800</v>
+        <v>101000</v>
       </c>
       <c r="H15" s="3">
-        <v>100200</v>
+        <v>100400</v>
       </c>
       <c r="I15" s="3">
-        <v>69400</v>
+        <v>69500</v>
       </c>
       <c r="J15" s="3">
-        <v>53500</v>
+        <v>53600</v>
       </c>
       <c r="K15" s="3">
         <v>50400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13851400</v>
+        <v>13881600</v>
       </c>
       <c r="E17" s="3">
-        <v>11545400</v>
+        <v>11570500</v>
       </c>
       <c r="F17" s="3">
-        <v>9122400</v>
+        <v>9142300</v>
       </c>
       <c r="G17" s="3">
-        <v>7640000</v>
+        <v>7656600</v>
       </c>
       <c r="H17" s="3">
-        <v>7359000</v>
+        <v>7375100</v>
       </c>
       <c r="I17" s="3">
-        <v>5733500</v>
+        <v>5746000</v>
       </c>
       <c r="J17" s="3">
-        <v>4353500</v>
+        <v>4362900</v>
       </c>
       <c r="K17" s="3">
         <v>5492000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7449500</v>
+        <v>7465800</v>
       </c>
       <c r="E18" s="3">
-        <v>3419700</v>
+        <v>3427100</v>
       </c>
       <c r="F18" s="3">
-        <v>401400</v>
+        <v>402200</v>
       </c>
       <c r="G18" s="3">
-        <v>1702100</v>
+        <v>1705800</v>
       </c>
       <c r="H18" s="3">
-        <v>1933800</v>
+        <v>1938000</v>
       </c>
       <c r="I18" s="3">
-        <v>1523700</v>
+        <v>1527000</v>
       </c>
       <c r="J18" s="3">
-        <v>230800</v>
+        <v>231300</v>
       </c>
       <c r="K18" s="3">
         <v>69800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>772000</v>
+        <v>773700</v>
       </c>
       <c r="E20" s="3">
-        <v>659800</v>
+        <v>661200</v>
       </c>
       <c r="F20" s="3">
-        <v>1009400</v>
+        <v>1011600</v>
       </c>
       <c r="G20" s="3">
-        <v>741800</v>
+        <v>743400</v>
       </c>
       <c r="H20" s="3">
-        <v>758900</v>
+        <v>760500</v>
       </c>
       <c r="I20" s="3">
-        <v>478800</v>
+        <v>479800</v>
       </c>
       <c r="J20" s="3">
-        <v>485100</v>
+        <v>486200</v>
       </c>
       <c r="K20" s="3">
         <v>404800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9791300</v>
+        <v>9811700</v>
       </c>
       <c r="E21" s="3">
-        <v>5612600</v>
+        <v>5623900</v>
       </c>
       <c r="F21" s="3">
-        <v>2586700</v>
+        <v>2591700</v>
       </c>
       <c r="G21" s="3">
-        <v>3247200</v>
+        <v>3253800</v>
       </c>
       <c r="H21" s="3">
-        <v>3563900</v>
+        <v>3571100</v>
       </c>
       <c r="I21" s="3">
-        <v>2643500</v>
+        <v>2648800</v>
       </c>
       <c r="J21" s="3">
-        <v>1290100</v>
+        <v>1292500</v>
       </c>
       <c r="K21" s="3">
         <v>1158700</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>824400</v>
+        <v>826200</v>
       </c>
       <c r="E22" s="3">
-        <v>732900</v>
+        <v>734500</v>
       </c>
       <c r="F22" s="3">
-        <v>395000</v>
+        <v>395900</v>
       </c>
       <c r="G22" s="3">
-        <v>379100</v>
+        <v>379900</v>
       </c>
       <c r="H22" s="3">
-        <v>497700</v>
+        <v>498800</v>
       </c>
       <c r="I22" s="3">
-        <v>448500</v>
+        <v>449500</v>
       </c>
       <c r="J22" s="3">
-        <v>344600</v>
+        <v>345300</v>
       </c>
       <c r="K22" s="3">
         <v>379600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7397200</v>
+        <v>7413300</v>
       </c>
       <c r="E23" s="3">
-        <v>3346500</v>
+        <v>3353800</v>
       </c>
       <c r="F23" s="3">
-        <v>1015800</v>
+        <v>1018000</v>
       </c>
       <c r="G23" s="3">
-        <v>2064900</v>
+        <v>2069400</v>
       </c>
       <c r="H23" s="3">
-        <v>2195000</v>
+        <v>2199800</v>
       </c>
       <c r="I23" s="3">
-        <v>1553900</v>
+        <v>1557300</v>
       </c>
       <c r="J23" s="3">
-        <v>371300</v>
+        <v>372100</v>
       </c>
       <c r="K23" s="3">
         <v>95100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2011900</v>
+        <v>2016200</v>
       </c>
       <c r="E24" s="3">
-        <v>753600</v>
+        <v>755200</v>
       </c>
       <c r="F24" s="3">
-        <v>250100</v>
+        <v>250600</v>
       </c>
       <c r="G24" s="3">
-        <v>435400</v>
+        <v>436300</v>
       </c>
       <c r="H24" s="3">
-        <v>634900</v>
+        <v>636300</v>
       </c>
       <c r="I24" s="3">
-        <v>374000</v>
+        <v>374800</v>
       </c>
       <c r="J24" s="3">
-        <v>112600</v>
+        <v>112800</v>
       </c>
       <c r="K24" s="3">
         <v>74800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5385300</v>
+        <v>5397000</v>
       </c>
       <c r="E26" s="3">
-        <v>2592900</v>
+        <v>2598600</v>
       </c>
       <c r="F26" s="3">
-        <v>765700</v>
+        <v>767400</v>
       </c>
       <c r="G26" s="3">
-        <v>1629500</v>
+        <v>1633000</v>
       </c>
       <c r="H26" s="3">
-        <v>1560000</v>
+        <v>1563400</v>
       </c>
       <c r="I26" s="3">
-        <v>1179900</v>
+        <v>1182500</v>
       </c>
       <c r="J26" s="3">
-        <v>258800</v>
+        <v>259300</v>
       </c>
       <c r="K26" s="3">
         <v>20300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4189600</v>
+        <v>4198700</v>
       </c>
       <c r="E27" s="3">
-        <v>2334200</v>
+        <v>2339300</v>
       </c>
       <c r="F27" s="3">
-        <v>870500</v>
+        <v>872400</v>
       </c>
       <c r="G27" s="3">
-        <v>1293600</v>
+        <v>1296400</v>
       </c>
       <c r="H27" s="3">
-        <v>1182500</v>
+        <v>1185100</v>
       </c>
       <c r="I27" s="3">
-        <v>1014400</v>
+        <v>1016600</v>
       </c>
       <c r="J27" s="3">
-        <v>227300</v>
+        <v>227700</v>
       </c>
       <c r="K27" s="3">
         <v>25100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-772000</v>
+        <v>-773700</v>
       </c>
       <c r="E32" s="3">
-        <v>-659800</v>
+        <v>-661200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1009400</v>
+        <v>-1011600</v>
       </c>
       <c r="G32" s="3">
-        <v>-741800</v>
+        <v>-743400</v>
       </c>
       <c r="H32" s="3">
-        <v>-758900</v>
+        <v>-760500</v>
       </c>
       <c r="I32" s="3">
-        <v>-478800</v>
+        <v>-479800</v>
       </c>
       <c r="J32" s="3">
-        <v>-485100</v>
+        <v>-486200</v>
       </c>
       <c r="K32" s="3">
         <v>-404800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4189600</v>
+        <v>4198700</v>
       </c>
       <c r="E33" s="3">
-        <v>2334200</v>
+        <v>2339300</v>
       </c>
       <c r="F33" s="3">
-        <v>870500</v>
+        <v>872400</v>
       </c>
       <c r="G33" s="3">
-        <v>1293600</v>
+        <v>1296400</v>
       </c>
       <c r="H33" s="3">
-        <v>1182500</v>
+        <v>1185100</v>
       </c>
       <c r="I33" s="3">
-        <v>1014400</v>
+        <v>1016600</v>
       </c>
       <c r="J33" s="3">
-        <v>227300</v>
+        <v>227700</v>
       </c>
       <c r="K33" s="3">
         <v>25100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4189600</v>
+        <v>4198700</v>
       </c>
       <c r="E35" s="3">
-        <v>2334200</v>
+        <v>2339300</v>
       </c>
       <c r="F35" s="3">
-        <v>870500</v>
+        <v>872400</v>
       </c>
       <c r="G35" s="3">
-        <v>1293600</v>
+        <v>1296400</v>
       </c>
       <c r="H35" s="3">
-        <v>1182500</v>
+        <v>1185100</v>
       </c>
       <c r="I35" s="3">
-        <v>1014400</v>
+        <v>1016600</v>
       </c>
       <c r="J35" s="3">
-        <v>227300</v>
+        <v>227700</v>
       </c>
       <c r="K35" s="3">
         <v>25100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5321700</v>
+        <v>5333200</v>
       </c>
       <c r="E41" s="3">
-        <v>5517400</v>
+        <v>5529400</v>
       </c>
       <c r="F41" s="3">
-        <v>2358300</v>
+        <v>2363400</v>
       </c>
       <c r="G41" s="3">
-        <v>3140000</v>
+        <v>3146800</v>
       </c>
       <c r="H41" s="3">
-        <v>3771400</v>
+        <v>3779700</v>
       </c>
       <c r="I41" s="3">
-        <v>2903500</v>
+        <v>2909800</v>
       </c>
       <c r="J41" s="3">
-        <v>2262700</v>
+        <v>2267700</v>
       </c>
       <c r="K41" s="3">
         <v>3082400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3401300</v>
+        <v>3408700</v>
       </c>
       <c r="E43" s="3">
-        <v>3567700</v>
+        <v>3575400</v>
       </c>
       <c r="F43" s="3">
-        <v>2438600</v>
+        <v>2443900</v>
       </c>
       <c r="G43" s="3">
-        <v>2576100</v>
+        <v>2581700</v>
       </c>
       <c r="H43" s="3">
-        <v>2386400</v>
+        <v>2391600</v>
       </c>
       <c r="I43" s="3">
-        <v>2899100</v>
+        <v>2905400</v>
       </c>
       <c r="J43" s="3">
-        <v>1635300</v>
+        <v>1638900</v>
       </c>
       <c r="K43" s="3">
         <v>1214300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1701700</v>
+        <v>1705400</v>
       </c>
       <c r="E44" s="3">
-        <v>1749400</v>
+        <v>1753200</v>
       </c>
       <c r="F44" s="3">
-        <v>1447900</v>
+        <v>1451100</v>
       </c>
       <c r="G44" s="3">
-        <v>1307700</v>
+        <v>1310600</v>
       </c>
       <c r="H44" s="3">
-        <v>1003900</v>
+        <v>1006000</v>
       </c>
       <c r="I44" s="3">
-        <v>827700</v>
+        <v>829500</v>
       </c>
       <c r="J44" s="3">
-        <v>697000</v>
+        <v>698500</v>
       </c>
       <c r="K44" s="3">
         <v>696600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1749900</v>
+        <v>1753700</v>
       </c>
       <c r="E45" s="3">
-        <v>1421400</v>
+        <v>1424500</v>
       </c>
       <c r="F45" s="3">
-        <v>1684800</v>
+        <v>1688400</v>
       </c>
       <c r="G45" s="3">
-        <v>1649300</v>
+        <v>1652900</v>
       </c>
       <c r="H45" s="3">
-        <v>1770700</v>
+        <v>1774500</v>
       </c>
       <c r="I45" s="3">
-        <v>2350100</v>
+        <v>2355200</v>
       </c>
       <c r="J45" s="3">
-        <v>1106400</v>
+        <v>1108800</v>
       </c>
       <c r="K45" s="3">
         <v>2464100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12174600</v>
+        <v>12201100</v>
       </c>
       <c r="E46" s="3">
-        <v>12255800</v>
+        <v>12282500</v>
       </c>
       <c r="F46" s="3">
-        <v>7929600</v>
+        <v>7946900</v>
       </c>
       <c r="G46" s="3">
-        <v>8673100</v>
+        <v>8692000</v>
       </c>
       <c r="H46" s="3">
-        <v>8932400</v>
+        <v>8951800</v>
       </c>
       <c r="I46" s="3">
-        <v>8989900</v>
+        <v>9009500</v>
       </c>
       <c r="J46" s="3">
-        <v>5719400</v>
+        <v>5731900</v>
       </c>
       <c r="K46" s="3">
         <v>7457400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3791600</v>
+        <v>3799800</v>
       </c>
       <c r="E47" s="3">
-        <v>3899100</v>
+        <v>3907600</v>
       </c>
       <c r="F47" s="3">
-        <v>3496600</v>
+        <v>3504200</v>
       </c>
       <c r="G47" s="3">
-        <v>3815700</v>
+        <v>3824000</v>
       </c>
       <c r="H47" s="3">
-        <v>3639500</v>
+        <v>3647400</v>
       </c>
       <c r="I47" s="3">
-        <v>2623600</v>
+        <v>2629300</v>
       </c>
       <c r="J47" s="3">
-        <v>1862800</v>
+        <v>1866900</v>
       </c>
       <c r="K47" s="3">
         <v>841400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16031400</v>
+        <v>16066300</v>
       </c>
       <c r="E48" s="3">
-        <v>14422600</v>
+        <v>14454000</v>
       </c>
       <c r="F48" s="3">
-        <v>15648100</v>
+        <v>15682100</v>
       </c>
       <c r="G48" s="3">
-        <v>8939600</v>
+        <v>8959100</v>
       </c>
       <c r="H48" s="3">
-        <v>7911000</v>
+        <v>7928200</v>
       </c>
       <c r="I48" s="3">
-        <v>7121800</v>
+        <v>7137300</v>
       </c>
       <c r="J48" s="3">
-        <v>5780300</v>
+        <v>5792900</v>
       </c>
       <c r="K48" s="3">
         <v>6969200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10241400</v>
+        <v>10263700</v>
       </c>
       <c r="E49" s="3">
-        <v>10643400</v>
+        <v>10666600</v>
       </c>
       <c r="F49" s="3">
-        <v>10260200</v>
+        <v>10282600</v>
       </c>
       <c r="G49" s="3">
-        <v>7386900</v>
+        <v>7403000</v>
       </c>
       <c r="H49" s="3">
-        <v>6822900</v>
+        <v>6837700</v>
       </c>
       <c r="I49" s="3">
-        <v>7148900</v>
+        <v>7164500</v>
       </c>
       <c r="J49" s="3">
-        <v>5821700</v>
+        <v>5834400</v>
       </c>
       <c r="K49" s="3">
         <v>5276900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280500</v>
+        <v>281100</v>
       </c>
       <c r="E52" s="3">
-        <v>383000</v>
+        <v>383800</v>
       </c>
       <c r="F52" s="3">
-        <v>280700</v>
+        <v>281300</v>
       </c>
       <c r="G52" s="3">
-        <v>223300</v>
+        <v>223800</v>
       </c>
       <c r="H52" s="3">
-        <v>1077500</v>
+        <v>1079800</v>
       </c>
       <c r="I52" s="3">
-        <v>1301500</v>
+        <v>1304400</v>
       </c>
       <c r="J52" s="3">
-        <v>1132200</v>
+        <v>1134700</v>
       </c>
       <c r="K52" s="3">
         <v>1221900</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42519400</v>
+        <v>42612000</v>
       </c>
       <c r="E54" s="3">
-        <v>41603900</v>
+        <v>41694500</v>
       </c>
       <c r="F54" s="3">
-        <v>37615200</v>
+        <v>37697100</v>
       </c>
       <c r="G54" s="3">
-        <v>29038600</v>
+        <v>29101800</v>
       </c>
       <c r="H54" s="3">
-        <v>28383200</v>
+        <v>28445000</v>
       </c>
       <c r="I54" s="3">
-        <v>27185700</v>
+        <v>27244900</v>
       </c>
       <c r="J54" s="3">
-        <v>20316400</v>
+        <v>20360700</v>
       </c>
       <c r="K54" s="3">
         <v>21766900</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4102000</v>
+        <v>4110900</v>
       </c>
       <c r="E57" s="3">
-        <v>3539600</v>
+        <v>3547300</v>
       </c>
       <c r="F57" s="3">
-        <v>3296200</v>
+        <v>3303400</v>
       </c>
       <c r="G57" s="3">
-        <v>2784600</v>
+        <v>2790600</v>
       </c>
       <c r="H57" s="3">
-        <v>1852300</v>
+        <v>1856300</v>
       </c>
       <c r="I57" s="3">
-        <v>1331800</v>
+        <v>1334700</v>
       </c>
       <c r="J57" s="3">
-        <v>849400</v>
+        <v>851300</v>
       </c>
       <c r="K57" s="3">
         <v>671900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2138400</v>
+        <v>2143100</v>
       </c>
       <c r="E58" s="3">
-        <v>3498200</v>
+        <v>3505800</v>
       </c>
       <c r="F58" s="3">
-        <v>4455500</v>
+        <v>4465200</v>
       </c>
       <c r="G58" s="3">
-        <v>2254700</v>
+        <v>2259600</v>
       </c>
       <c r="H58" s="3">
-        <v>2765200</v>
+        <v>2771200</v>
       </c>
       <c r="I58" s="3">
-        <v>3823600</v>
+        <v>3831900</v>
       </c>
       <c r="J58" s="3">
-        <v>4235600</v>
+        <v>4244900</v>
       </c>
       <c r="K58" s="3">
         <v>3651900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5291700</v>
+        <v>5303200</v>
       </c>
       <c r="E59" s="3">
-        <v>6227900</v>
+        <v>6241500</v>
       </c>
       <c r="F59" s="3">
-        <v>6381200</v>
+        <v>6395100</v>
       </c>
       <c r="G59" s="3">
-        <v>4192300</v>
+        <v>4201400</v>
       </c>
       <c r="H59" s="3">
-        <v>3594200</v>
+        <v>3602100</v>
       </c>
       <c r="I59" s="3">
-        <v>3624700</v>
+        <v>3632500</v>
       </c>
       <c r="J59" s="3">
-        <v>1994600</v>
+        <v>1999000</v>
       </c>
       <c r="K59" s="3">
         <v>2101600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11532100</v>
+        <v>11557200</v>
       </c>
       <c r="E60" s="3">
-        <v>13265700</v>
+        <v>13294500</v>
       </c>
       <c r="F60" s="3">
-        <v>14133000</v>
+        <v>14163700</v>
       </c>
       <c r="G60" s="3">
-        <v>9231500</v>
+        <v>9251600</v>
       </c>
       <c r="H60" s="3">
-        <v>8211700</v>
+        <v>8229600</v>
       </c>
       <c r="I60" s="3">
-        <v>8780100</v>
+        <v>8799200</v>
       </c>
       <c r="J60" s="3">
-        <v>7079700</v>
+        <v>7095100</v>
       </c>
       <c r="K60" s="3">
         <v>6425400</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8435500</v>
+        <v>8453900</v>
       </c>
       <c r="E61" s="3">
-        <v>10899900</v>
+        <v>10923600</v>
       </c>
       <c r="F61" s="3">
-        <v>8613300</v>
+        <v>8632000</v>
       </c>
       <c r="G61" s="3">
-        <v>6819600</v>
+        <v>6834400</v>
       </c>
       <c r="H61" s="3">
-        <v>6697200</v>
+        <v>6711800</v>
       </c>
       <c r="I61" s="3">
-        <v>5870700</v>
+        <v>5883500</v>
       </c>
       <c r="J61" s="3">
-        <v>4799700</v>
+        <v>4810100</v>
       </c>
       <c r="K61" s="3">
         <v>7059600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3370400</v>
+        <v>3377700</v>
       </c>
       <c r="E62" s="3">
-        <v>2564100</v>
+        <v>2569700</v>
       </c>
       <c r="F62" s="3">
-        <v>2181700</v>
+        <v>2186500</v>
       </c>
       <c r="G62" s="3">
-        <v>1228200</v>
+        <v>1230800</v>
       </c>
       <c r="H62" s="3">
-        <v>1481100</v>
+        <v>1484400</v>
       </c>
       <c r="I62" s="3">
-        <v>1554500</v>
+        <v>1557900</v>
       </c>
       <c r="J62" s="3">
-        <v>1079100</v>
+        <v>1081500</v>
       </c>
       <c r="K62" s="3">
         <v>1284300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28314100</v>
+        <v>28375800</v>
       </c>
       <c r="E66" s="3">
-        <v>31025700</v>
+        <v>31093300</v>
       </c>
       <c r="F66" s="3">
-        <v>28919600</v>
+        <v>28982600</v>
       </c>
       <c r="G66" s="3">
-        <v>19690400</v>
+        <v>19733300</v>
       </c>
       <c r="H66" s="3">
-        <v>19315700</v>
+        <v>19357800</v>
       </c>
       <c r="I66" s="3">
-        <v>18907800</v>
+        <v>18948900</v>
       </c>
       <c r="J66" s="3">
-        <v>14281100</v>
+        <v>14312200</v>
       </c>
       <c r="K66" s="3">
         <v>15061400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12163200</v>
+        <v>12189700</v>
       </c>
       <c r="E72" s="3">
-        <v>9394100</v>
+        <v>9414500</v>
       </c>
       <c r="F72" s="3">
-        <v>7651400</v>
+        <v>7668000</v>
       </c>
       <c r="G72" s="3">
-        <v>7241100</v>
+        <v>7256900</v>
       </c>
       <c r="H72" s="3">
-        <v>7068900</v>
+        <v>7084300</v>
       </c>
       <c r="I72" s="3">
-        <v>6204800</v>
+        <v>6218300</v>
       </c>
       <c r="J72" s="3">
-        <v>5200700</v>
+        <v>5212000</v>
       </c>
       <c r="K72" s="3">
         <v>5668900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14205300</v>
+        <v>14236200</v>
       </c>
       <c r="E76" s="3">
-        <v>10578200</v>
+        <v>10601200</v>
       </c>
       <c r="F76" s="3">
-        <v>8695600</v>
+        <v>8714600</v>
       </c>
       <c r="G76" s="3">
-        <v>9348200</v>
+        <v>9368600</v>
       </c>
       <c r="H76" s="3">
-        <v>9067500</v>
+        <v>9087200</v>
       </c>
       <c r="I76" s="3">
-        <v>8278000</v>
+        <v>8296000</v>
       </c>
       <c r="J76" s="3">
-        <v>6035300</v>
+        <v>6048500</v>
       </c>
       <c r="K76" s="3">
         <v>6705400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4189600</v>
+        <v>4198700</v>
       </c>
       <c r="E81" s="3">
-        <v>2334200</v>
+        <v>2339300</v>
       </c>
       <c r="F81" s="3">
-        <v>870500</v>
+        <v>872400</v>
       </c>
       <c r="G81" s="3">
-        <v>1293600</v>
+        <v>1296400</v>
       </c>
       <c r="H81" s="3">
-        <v>1182500</v>
+        <v>1185100</v>
       </c>
       <c r="I81" s="3">
-        <v>1014400</v>
+        <v>1016600</v>
       </c>
       <c r="J81" s="3">
-        <v>227300</v>
+        <v>227700</v>
       </c>
       <c r="K81" s="3">
         <v>25100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1569800</v>
+        <v>1573200</v>
       </c>
       <c r="E83" s="3">
-        <v>1533200</v>
+        <v>1536500</v>
       </c>
       <c r="F83" s="3">
-        <v>1175900</v>
+        <v>1178500</v>
       </c>
       <c r="G83" s="3">
-        <v>803200</v>
+        <v>805000</v>
       </c>
       <c r="H83" s="3">
-        <v>871200</v>
+        <v>873100</v>
       </c>
       <c r="I83" s="3">
-        <v>641000</v>
+        <v>642400</v>
       </c>
       <c r="J83" s="3">
-        <v>574100</v>
+        <v>575400</v>
       </c>
       <c r="K83" s="3">
         <v>681700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8525000</v>
+        <v>8543500</v>
       </c>
       <c r="E89" s="3">
-        <v>4108000</v>
+        <v>4117000</v>
       </c>
       <c r="F89" s="3">
-        <v>958800</v>
+        <v>960900</v>
       </c>
       <c r="G89" s="3">
-        <v>2261100</v>
+        <v>2266100</v>
       </c>
       <c r="H89" s="3">
-        <v>2513600</v>
+        <v>2519000</v>
       </c>
       <c r="I89" s="3">
-        <v>1675500</v>
+        <v>1679100</v>
       </c>
       <c r="J89" s="3">
-        <v>1546000</v>
+        <v>1549400</v>
       </c>
       <c r="K89" s="3">
         <v>310000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2350800</v>
+        <v>-2355900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1589500</v>
+        <v>-1593000</v>
       </c>
       <c r="F91" s="3">
-        <v>-900400</v>
+        <v>-902400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1086600</v>
+        <v>-1089000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1388500</v>
+        <v>-1391500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1065400</v>
+        <v>-1067700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1072500</v>
+        <v>-1074900</v>
       </c>
       <c r="K91" s="3">
         <v>-1880700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2090200</v>
+        <v>-2094800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3095900</v>
+        <v>-3102600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1414700</v>
+        <v>-1417700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1566300</v>
+        <v>-1569700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1401500</v>
+        <v>-1404500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4249300</v>
+        <v>-4258600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2060500</v>
+        <v>-2065000</v>
       </c>
       <c r="K94" s="3">
         <v>-1253300</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1365100</v>
+        <v>-1368100</v>
       </c>
       <c r="E96" s="3">
-        <v>-671800</v>
+        <v>-673200</v>
       </c>
       <c r="F96" s="3">
-        <v>-650700</v>
+        <v>-652200</v>
       </c>
       <c r="G96" s="3">
-        <v>-783800</v>
+        <v>-785500</v>
       </c>
       <c r="H96" s="3">
-        <v>-324600</v>
+        <v>-325300</v>
       </c>
       <c r="I96" s="3">
-        <v>-75900</v>
+        <v>-76000</v>
       </c>
       <c r="J96" s="3">
         <v>-6800</v>
@@ -4165,22 +4165,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6764900</v>
+        <v>-6779600</v>
       </c>
       <c r="E100" s="3">
-        <v>2200400</v>
+        <v>2205200</v>
       </c>
       <c r="F100" s="3">
-        <v>-296700</v>
+        <v>-297300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1368000</v>
+        <v>-1371000</v>
       </c>
       <c r="H100" s="3">
-        <v>-260600</v>
+        <v>-261100</v>
       </c>
       <c r="I100" s="3">
-        <v>3248800</v>
+        <v>3255900</v>
       </c>
       <c r="J100" s="3">
         <v>5300</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>134400</v>
+        <v>134700</v>
       </c>
       <c r="E101" s="3">
-        <v>-53500</v>
+        <v>-53600</v>
       </c>
       <c r="F101" s="3">
-        <v>-29100</v>
+        <v>-29200</v>
       </c>
       <c r="G101" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="H101" s="3">
         <v>16500</v>
       </c>
       <c r="I101" s="3">
-        <v>-34200</v>
+        <v>-34300</v>
       </c>
       <c r="J101" s="3">
         <v>-7800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-195700</v>
+        <v>-196100</v>
       </c>
       <c r="E102" s="3">
-        <v>3159100</v>
+        <v>3165900</v>
       </c>
       <c r="F102" s="3">
-        <v>-781700</v>
+        <v>-783400</v>
       </c>
       <c r="G102" s="3">
-        <v>-631400</v>
+        <v>-632800</v>
       </c>
       <c r="H102" s="3">
-        <v>868000</v>
+        <v>869900</v>
       </c>
       <c r="I102" s="3">
-        <v>640700</v>
+        <v>642100</v>
       </c>
       <c r="J102" s="3">
-        <v>-517000</v>
+        <v>-518100</v>
       </c>
       <c r="K102" s="3">
         <v>784200</v>
